--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_442.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_442.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32525-d84225-Reviews-Inglewood_Plaza_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
   <si>
     <t>STR</t>
@@ -529,9 +538,15 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
@@ -555,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_442.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_442.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="492">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1389 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r475083983-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>32525</t>
+  </si>
+  <si>
+    <t>84225</t>
+  </si>
+  <si>
+    <t>475083983</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Creppy - only if you REALLY don't have money for better options</t>
+  </si>
+  <si>
+    <t>Good:Very cheap. Breakfast included. Near the airport.Bad:- Looks  really dangerousThere were bullet holes in the wall near the elevator. Also, when we were going out, very early in the morning, the reception was empty and there was a homeless guy in front of the office. - Very far from LA tourist spots (money you can save it will expand on transportation)-The room and toilet were not properly cleaned.-The breakfast is only bread, jam and coffe (black- no milk)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Good:Very cheap. Breakfast included. Near the airport.Bad:- Looks  really dangerousThere were bullet holes in the wall near the elevator. Also, when we were going out, very early in the morning, the reception was empty and there was a homeless guy in front of the office. - Very far from LA tourist spots (money you can save it will expand on transportation)-The room and toilet were not properly cleaned.-The breakfast is only bread, jam and coffe (black- no milk)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r457987419-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>457987419</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Snoop dog wanna be was in the parking lot when we parked.  The hotel was shadey and looked like a dive!  They lost our reservation so we ended up not staying there.  There was bullet proof glass in the lobby- speaks more than words!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Snoop dog wanna be was in the parking lot when we parked.  The hotel was shadey and looked like a dive!  They lost our reservation so we ended up not staying there.  There was bullet proof glass in the lobby- speaks more than words!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r450478409-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>450478409</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Quite a Surprise</t>
+  </si>
+  <si>
+    <t>After staying at a luxury resort we decided to save a few dollars for a night at the airport. Arriving at this hotel we thought perhaps we made a mistake.  However, the grounds were beautiful with all kinds of flowers and vegetation and fountains. We found out this was the original hotel built near the airport in the '30,s and added on to in the 50's. There is a junior size olympic pool.  In the past this hotel was host to many celebrities.  We felt this was much more fun than staying at a Hilton. The bed was great, it was quite (no loud all night wedding parties as we have experience in upscale hotels in cities).MoreShow less</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>After staying at a luxury resort we decided to save a few dollars for a night at the airport. Arriving at this hotel we thought perhaps we made a mistake.  However, the grounds were beautiful with all kinds of flowers and vegetation and fountains. We found out this was the original hotel built near the airport in the '30,s and added on to in the 50's. There is a junior size olympic pool.  In the past this hotel was host to many celebrities.  We felt this was much more fun than staying at a Hilton. The bed was great, it was quite (no loud all night wedding parties as we have experience in upscale hotels in cities).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r426541368-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>426541368</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Pretty much what you'd expect</t>
+  </si>
+  <si>
+    <t>We spent very little time at the hotel but it serves it's purpose well. It's nothing special but the beds are pretty comfortable and it was pretty clean. Strange area of town, lots of fried chicken so that's cool. Only 20 minutes from Santa Monica and Venice beach. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded October 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2016</t>
+  </si>
+  <si>
+    <t>We spent very little time at the hotel but it serves it's purpose well. It's nothing special but the beds are pretty comfortable and it was pretty clean. Strange area of town, lots of fried chicken so that's cool. Only 20 minutes from Santa Monica and Venice beach. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r425376562-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>425376562</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>It is not a good place to crush.</t>
+  </si>
+  <si>
+    <t>We should of paid a little bit more and stay in different place.AC is vert loud I think it is very old  and not working properly .You can hear everything from outside and it is busy road.In the breakfast area not even a chair,I am not talking about TABLE!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>We should of paid a little bit more and stay in different place.AC is vert loud I think it is very old  and not working properly .You can hear everything from outside and it is busy road.In the breakfast area not even a chair,I am not talking about TABLE!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r403168022-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>403168022</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Worst Stay ...</t>
+  </si>
+  <si>
+    <t>Do not stay here. It's in a horrible sketchy location of Inglewood. There were photos advertised of what the rooms look like and it was not correct. The rooms are out dated and run down. The air conditioner did not work, it was about 100 degrees in our room. There is a crack under the door so any bug can get in. The beds are not comfortable. There is hardly any parking and it is not safe. I would recommend spending the extra money and getting a better hotel in a safer area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Do not stay here. It's in a horrible sketchy location of Inglewood. There were photos advertised of what the rooms look like and it was not correct. The rooms are out dated and run down. The air conditioner did not work, it was about 100 degrees in our room. There is a crack under the door so any bug can get in. The beds are not comfortable. There is hardly any parking and it is not safe. I would recommend spending the extra money and getting a better hotel in a safer area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r397685343-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>397685343</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Reasonable Rates</t>
+  </si>
+  <si>
+    <t>The room was very satisfactory, Wi-Fi is available, and you do have cable and a refrigerator in room. They also offer a continental breakfast. It's not in the most desirable area, but it serves the purpose and is reasonable for the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>The room was very satisfactory, Wi-Fi is available, and you do have cable and a refrigerator in room. They also offer a continental breakfast. It's not in the most desirable area, but it serves the purpose and is reasonable for the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r397123074-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>397123074</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>It's good</t>
+  </si>
+  <si>
+    <t>I needed somewhere else to stay at a last minute so i found econo lodge in Inglewood since i was visiting Hawthorne that day my family's home was full for grandmothers bday so my husband and i I decided to stay out for the night ☺. Thanks to the front desk Ricardo everything was really accommodated.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I needed somewhere else to stay at a last minute so i found econo lodge in Inglewood since i was visiting Hawthorne that day my family's home was full for grandmothers bday so my husband and i I decided to stay out for the night ☺. Thanks to the front desk Ricardo everything was really accommodated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r397094014-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>397094014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average </t>
+  </si>
+  <si>
+    <t>Average accommodation but the price is right. The continental breakfast is average. If you need a nutritious breakfast you are close to restaurants, walking distance. The rooms are clean and spacious. If you want a place to sleep without breaking the bank, this place will work for you. MoreShow less</t>
+  </si>
+  <si>
+    <t>Average accommodation but the price is right. The continental breakfast is average. If you need a nutritious breakfast you are close to restaurants, walking distance. The rooms are clean and spacious. If you want a place to sleep without breaking the bank, this place will work for you. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r395281588-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>395281588</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Not upto the mark</t>
+  </si>
+  <si>
+    <t>By seeing the review we booked this hotel. But it did nt match well what I read. The room was clean. But curtain was teared off. There was no microwave or complementary minimum stuff which I saw in Rodway inn or Super8. Breakfast had almost nothing Few packaged buns and stuffs. No egg, cereal or pancake or yogurt. Almost nothing apart from bread stuff and coffee/juice. Sometimes at front desk you wil not find anyone. Altogether I did not feel it is even worth to pay 110 bucks for this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>By seeing the review we booked this hotel. But it did nt match well what I read. The room was clean. But curtain was teared off. There was no microwave or complementary minimum stuff which I saw in Rodway inn or Super8. Breakfast had almost nothing Few packaged buns and stuffs. No egg, cereal or pancake or yogurt. Almost nothing apart from bread stuff and coffee/juice. Sometimes at front desk you wil not find anyone. Altogether I did not feel it is even worth to pay 110 bucks for this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r386686815-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>386686815</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>I stayed at the Econo Lodge LAX. from June 19th until June 23rd.It was convenient and it was a good value for the money.The room was clean and the bed was comfortable and the sheets were clean.I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at the Econo Lodge LAX. from June 19th until June 23rd.It was convenient and it was a good value for the money.The room was clean and the bed was comfortable and the sheets were clean.I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r374947654-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>374947654</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>It worked for me</t>
+  </si>
+  <si>
+    <t>For a budget hotel near the airport it was good. Good location, service and the room was clean. It's an older hotel in a neighborhood that may not interest everyone but if you are visiting LA on a budget I recommend staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>For a budget hotel near the airport it was good. Good location, service and the room was clean. It's an older hotel in a neighborhood that may not interest everyone but if you are visiting LA on a budget I recommend staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r352666271-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>352666271</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Very pleasant staff, fast and easy check in. We have stayed in a several budget hotels in LA and this hotel was the best. It's nice and clean. In other hotels we experienced problems with water pressure in the shower and temperature changes, but nothing of this kind in Econo Lodge. The parking was free. Location is also great, very close to the LAX. We really enjoyed our stay. I greatly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Very pleasant staff, fast and easy check in. We have stayed in a several budget hotels in LA and this hotel was the best. It's nice and clean. In other hotels we experienced problems with water pressure in the shower and temperature changes, but nothing of this kind in Econo Lodge. The parking was free. Location is also great, very close to the LAX. We really enjoyed our stay. I greatly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r341836861-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>341836861</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Good value for money</t>
+  </si>
+  <si>
+    <t>This is a budget hotel, nothing fancy  but it offers everything that travelers need, big bed, huge bathroom bench, spacious room, fridge etc. a microwave in room would make more convenient however the host offered us a microwave in the breakfast room Soi have got no complaint. Very close to airport, great for those who need to go to airport the next day as you could avoid the traffic during the day that might jeopardise your flights.Good value for what we paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded January 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2016</t>
+  </si>
+  <si>
+    <t>This is a budget hotel, nothing fancy  but it offers everything that travelers need, big bed, huge bathroom bench, spacious room, fridge etc. a microwave in room would make more convenient however the host offered us a microwave in the breakfast room Soi have got no complaint. Very close to airport, great for those who need to go to airport the next day as you could avoid the traffic during the day that might jeopardise your flights.Good value for what we paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r337286082-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>337286082</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Quite a nice place to stay</t>
+  </si>
+  <si>
+    <t>Clean room, pleasant staff, which was helpful when we needed a room in emergency, at an affordale price. A bit noisy because of the airport, but it can be practical to be close to. Breakfast quite varied.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Clean room, pleasant staff, which was helpful when we needed a room in emergency, at an affordale price. A bit noisy because of the airport, but it can be practical to be close to. Breakfast quite varied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r334464618-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>334464618</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>My boyfriend and I just landed from San Jose and didn't know where to stay. This was the closest and affordable hotel for both of us. We enjoyed out stay there it was comfortable and clean. The staff was very helpful and made my stay very enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I just landed from San Jose and didn't know where to stay. This was the closest and affordable hotel for both of us. We enjoyed out stay there it was comfortable and clean. The staff was very helpful and made my stay very enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r329058103-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>329058103</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>just barely better than sleeping on LAX airport floor</t>
+  </si>
+  <si>
+    <t>This place is slightly better than sleeping on LAX Terminal floor. Just barely. I had a newer renovated room, it was approaching decent. I've stayed in worse places. But not many. Decent location, quite the lively neighborhood. Their free breakfast is even fit for cockroaches. Use as last resort or spring for $20-$25 more to stay at the Holiday Inn Express. That'll make you smarter!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded November 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2015</t>
+  </si>
+  <si>
+    <t>This place is slightly better than sleeping on LAX Terminal floor. Just barely. I had a newer renovated room, it was approaching decent. I've stayed in worse places. But not many. Decent location, quite the lively neighborhood. Their free breakfast is even fit for cockroaches. Use as last resort or spring for $20-$25 more to stay at the Holiday Inn Express. That'll make you smarter!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r327911763-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>327911763</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>Helpful</t>
+  </si>
+  <si>
+    <t>Checked in around 9 the recipient was a very nice women asked for a cart to get my bags and she came out to help...also told me where I can get good food this late... she  was awesome I was very tired and had a bad flight she made my night plesent MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded November 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2015</t>
+  </si>
+  <si>
+    <t>Checked in around 9 the recipient was a very nice women asked for a cart to get my bags and she came out to help...also told me where I can get good food this late... she  was awesome I was very tired and had a bad flight she made my night plesent More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r316887254-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>316887254</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Favorite Hotel</t>
+  </si>
+  <si>
+    <t>I've been going to this hotel for a while now I have never had an issue with anything. The staff there is very friendly, the rooms are always clean, and the prices are reasonable. Needless to say I am in the military are they are military friendly and thats hard to find now in days. I most definitely know I can always count on this place.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded October 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2015</t>
+  </si>
+  <si>
+    <t>I've been going to this hotel for a while now I have never had an issue with anything. The staff there is very friendly, the rooms are always clean, and the prices are reasonable. Needless to say I am in the military are they are military friendly and thats hard to find now in days. I most definitely know I can always count on this place.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r316751378-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>316751378</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>Friendly service</t>
+  </si>
+  <si>
+    <t>I have stayed here many times and have never had an issue. Reasonable prices, great rooms, and very friendly service. As soon as I walked in the staff acknowledged me and was very helpful. The rooms are very clean and spacious. By far my favorite place to stay at. The location is surrounded by many places to eat and shop. Will always come back to this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed here many times and have never had an issue. Reasonable prices, great rooms, and very friendly service. As soon as I walked in the staff acknowledged me and was very helpful. The rooms are very clean and spacious. By far my favorite place to stay at. The location is surrounded by many places to eat and shop. Will always come back to this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r312897970-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>312897970</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Try to avoid if you can</t>
+  </si>
+  <si>
+    <t>front desk person was rude and didn't acknowledge me as a frequent Choice Privileges rewards client. Instead, I immediately had to sign several documents about fines involved if the room is trashed, etc. It shows you what kind of clientele they have. it is an airport hotel, but any shuttle transportation to the airport costs extra. The room was not so clean, but roomy. The area around the hotel is not so great. In Inglewood, just a few blocks can make a difference on who is hanging out in front of the hotel (there are several hotels on Century Blvd near LAX).  If you are on a tight budget, the Rodeway Inn just a few blocks further from LAX down Century Blvd is much nicer and usually quite similar in price.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded October 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2015</t>
+  </si>
+  <si>
+    <t>front desk person was rude and didn't acknowledge me as a frequent Choice Privileges rewards client. Instead, I immediately had to sign several documents about fines involved if the room is trashed, etc. It shows you what kind of clientele they have. it is an airport hotel, but any shuttle transportation to the airport costs extra. The room was not so clean, but roomy. The area around the hotel is not so great. In Inglewood, just a few blocks can make a difference on who is hanging out in front of the hotel (there are several hotels on Century Blvd near LAX).  If you are on a tight budget, the Rodeway Inn just a few blocks further from LAX down Century Blvd is much nicer and usually quite similar in price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r292504505-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>292504505</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>After flight</t>
+  </si>
+  <si>
+    <t>We got into LAX after a few delays and took these rooms. This motel was dirty and very musty smelling. I had trouble going to sleep because the smell was overpowering. There was no place to park and the management was very unhelpful - just kept telling us to park on the street. MoreShow less</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Motel 6 Inglewood, CA, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>We got into LAX after a few delays and took these rooms. This motel was dirty and very musty smelling. I had trouble going to sleep because the smell was overpowering. There was no place to park and the management was very unhelpful - just kept telling us to park on the street. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r286041531-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>286041531</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>8 Hours Stay was way too long!</t>
+  </si>
+  <si>
+    <t>Way overpriced for a dingy place to stay!Towels were hard, brown and stained (suppose to be white), mildew around tub.Good thing I always bring my own towel!I did not want to touch anything in the room or bathroom. The toilet was dirty, had stool stained inside, basin was rust. Rm 317. We check in at 2330 and was tired but we were out by 0830.Sheets were so old n thin good thing I had a blanket to lay on top. Does not even deserve a star! The Four points was our Rescue!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Way overpriced for a dingy place to stay!Towels were hard, brown and stained (suppose to be white), mildew around tub.Good thing I always bring my own towel!I did not want to touch anything in the room or bathroom. The toilet was dirty, had stool stained inside, basin was rust. Rm 317. We check in at 2330 and was tired but we were out by 0830.Sheets were so old n thin good thing I had a blanket to lay on top. Does not even deserve a star! The Four points was our Rescue!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r285664410-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>285664410</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Horrible-horrible-horrible</t>
+  </si>
+  <si>
+    <t>Booked an overnight stay, parking for the weekend &amp; free shuttle service to LAX.  When we arrived we were told they no longer offered shuttle service &amp; we were on our own for transportation.No light bulb in the lamp by the bed, tv did not work, went to call front desk &amp; the phone did not work.Asked for an adjustment to our bill &amp; was told to speak to the manager however he was not in when we checked in or checked out.  Asked  for a telephone call &amp; of course never received one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Booked an overnight stay, parking for the weekend &amp; free shuttle service to LAX.  When we arrived we were told they no longer offered shuttle service &amp; we were on our own for transportation.No light bulb in the lamp by the bed, tv did not work, went to call front desk &amp; the phone did not work.Asked for an adjustment to our bill &amp; was told to speak to the manager however he was not in when we checked in or checked out.  Asked  for a telephone call &amp; of course never received one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r280936947-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>280936947</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Definitely not worth the savings.</t>
+  </si>
+  <si>
+    <t>Upon check-in not only did we have to pay our full bill we had to put down a deposit. We were told we get that back upon check-out. We arrived around 10pm and standing in the lobby was a homeless man . Very uncomfortable when trying to check in. There were stains on the towels and they are beyond small. The bed is extremely springy. The room size was a decent size, with only about 10 channels to watch on their tv. The only positive so far is I am at work for most of the day. I would not recommend this to anyone and I will definitely not be coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon check-in not only did we have to pay our full bill we had to put down a deposit. We were told we get that back upon check-out. We arrived around 10pm and standing in the lobby was a homeless man . Very uncomfortable when trying to check in. There were stains on the towels and they are beyond small. The bed is extremely springy. The room size was a decent size, with only about 10 channels to watch on their tv. The only positive so far is I am at work for most of the day. I would not recommend this to anyone and I will definitely not be coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r243010840-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>243010840</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>My Favorite Hotel</t>
+  </si>
+  <si>
+    <t>I've stayed in many hotels all over the world, but this was, by far, one of the nicest ever. Clean, soft water, convenience, beautiful garden surroundings, so well maintained.  Great bedding. Dog friendly. Can't say enough about this wonderful little gem near LAX.MoreShow less</t>
+  </si>
+  <si>
+    <t>Timesh_p, Manager at Motel 6 Inglewood, CA, responded to this reviewResponded December 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2014</t>
+  </si>
+  <si>
+    <t>I've stayed in many hotels all over the world, but this was, by far, one of the nicest ever. Clean, soft water, convenience, beautiful garden surroundings, so well maintained.  Great bedding. Dog friendly. Can't say enough about this wonderful little gem near LAX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r240968092-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>240968092</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>Good for night before flight</t>
+  </si>
+  <si>
+    <t>This was the first hotel in CA where the office had a bullet-proof window between me and the hotel clerk.  The area is not the best, and I wondered if our car would be there the next morning. I noticed other hotels with a gate at their parking lot.  Having said that, once we were in our room, no problems.  Room was clean, spacious. I'll second the person who said the towels were ex-foliators. But we were only there for one night before an early morning flight, so I would stay again. They do offer a basic Complimentary Breakfast with cereal, pastries, coffee and OJ,  but there is nowhere to sit in the breakfast room....there was room for  a small table with 4 chairs, so we just stood and ate our cereal. We did walk the area at night with no problems...walked to "Mona's Restaurant" for dinner and then walked to Subway the next morning to pick up subs for lunch during our flight-much less expensive than the sandwiches at the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>This was the first hotel in CA where the office had a bullet-proof window between me and the hotel clerk.  The area is not the best, and I wondered if our car would be there the next morning. I noticed other hotels with a gate at their parking lot.  Having said that, once we were in our room, no problems.  Room was clean, spacious. I'll second the person who said the towels were ex-foliators. But we were only there for one night before an early morning flight, so I would stay again. They do offer a basic Complimentary Breakfast with cereal, pastries, coffee and OJ,  but there is nowhere to sit in the breakfast room....there was room for  a small table with 4 chairs, so we just stood and ate our cereal. We did walk the area at night with no problems...walked to "Mona's Restaurant" for dinner and then walked to Subway the next morning to pick up subs for lunch during our flight-much less expensive than the sandwiches at the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r218045024-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>218045024</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Good for cheap short stay, no fluff</t>
+  </si>
+  <si>
+    <t>A review from a normal, well traveled easy to please 20 something: The hotel was on a street with lots of traffic noise and airplane fly overs so I wouldn't recommend it to those who have trouble sleeping. A pillow over my head and ear plugs worked pretty well but it wasn't a great night sleep overall. The room was nicer than expected and very clean. The beds were comfy. Not a sketchy place for the price. Breakfast was just standing room with machine made juice and coffee and bagels. There were a couple cereal choices and some packaged pastries. Better than nothing, but not continental. Bring your own fruits, veggies and tea. If you are looking for a nice, inexpensive place to crash for a night near LAX than I recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Timesh_p, Manager at Motel 6 Inglewood, CA, responded to this reviewResponded January 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2015</t>
+  </si>
+  <si>
+    <t>A review from a normal, well traveled easy to please 20 something: The hotel was on a street with lots of traffic noise and airplane fly overs so I wouldn't recommend it to those who have trouble sleeping. A pillow over my head and ear plugs worked pretty well but it wasn't a great night sleep overall. The room was nicer than expected and very clean. The beds were comfy. Not a sketchy place for the price. Breakfast was just standing room with machine made juice and coffee and bagels. There were a couple cereal choices and some packaged pastries. Better than nothing, but not continental. Bring your own fruits, veggies and tea. If you are looking for a nice, inexpensive place to crash for a night near LAX than I recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r216713138-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>216713138</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Worth what you pay for</t>
+  </si>
+  <si>
+    <t>- For just under 95 bucks this is the best economy hotel we stayed for. - Room was clean and restroom tidy as well. They did change towels the next morning, something that other budget hotels miss to do. - The surrounding area is bit scary though (cop sirens and strange behavior), but plan to leave this place in the morning and come back for a night's sleep and you will feel better. Don't plan to take a walk or stand in the ground floor outside in the evening or night- Parking is little tight in terms of maneuvering but it has space for SUVs and Vans, and 2 to 3 spots open all the time- Snack and Grab 'n' go food is available in vending machine- Beverage and Ice vending machines are also available- 7 eleven, CVS, Starbucks, Panda Express and other food joints are just half a mile near by on either side of this lodge- If you are looking for a budget hotel for a short stay and if you can make out rest of the things, this is the place !!!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>- For just under 95 bucks this is the best economy hotel we stayed for. - Room was clean and restroom tidy as well. They did change towels the next morning, something that other budget hotels miss to do. - The surrounding area is bit scary though (cop sirens and strange behavior), but plan to leave this place in the morning and come back for a night's sleep and you will feel better. Don't plan to take a walk or stand in the ground floor outside in the evening or night- Parking is little tight in terms of maneuvering but it has space for SUVs and Vans, and 2 to 3 spots open all the time- Snack and Grab 'n' go food is available in vending machine- Beverage and Ice vending machines are also available- 7 eleven, CVS, Starbucks, Panda Express and other food joints are just half a mile near by on either side of this lodge- If you are looking for a budget hotel for a short stay and if you can make out rest of the things, this is the place !!!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r212722844-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>212722844</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>A Great Place to Stay</t>
+  </si>
+  <si>
+    <t>We made a short trip to visit LA, The room was wonderful, spacious bathroom. facilities in room &amp; bathroom were excellent.it is good and safe. Staff were courteous., I prefer to stay in future visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We made a short trip to visit LA, The room was wonderful, spacious bathroom. facilities in room &amp; bathroom were excellent.it is good and safe. Staff were courteous., I prefer to stay in future visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r209894643-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>209894643</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>Rooms nicer than you would think</t>
+  </si>
+  <si>
+    <t>This is an older hotel but they have done a good job in remodeling their rooms. We have used this hotel for park and fly twice. Decent price and your car can stay for a week free. Then $5 a day after that. Easy access from the 405 freeway and they provide transit to LAX and back. We have used other hotels in the area from the Hilton down. The room was actually as nice as the one at the Hilton, if not better, because the room at the Hilton was getting rather run down with stained carpet and frayed edges. The Hilton may have an impressive lobby but we just need a decent place to lay our heads till our flight the next day. The Econo Lodge provides that for a lot less money.The only reason I gave it a 4 is because it is in an older neighborhood, otherwise a 5.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Timesh_p, Manager at Motel 6 Inglewood, CA, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>This is an older hotel but they have done a good job in remodeling their rooms. We have used this hotel for park and fly twice. Decent price and your car can stay for a week free. Then $5 a day after that. Easy access from the 405 freeway and they provide transit to LAX and back. We have used other hotels in the area from the Hilton down. The room was actually as nice as the one at the Hilton, if not better, because the room at the Hilton was getting rather run down with stained carpet and frayed edges. The Hilton may have an impressive lobby but we just need a decent place to lay our heads till our flight the next day. The Econo Lodge provides that for a lot less money.The only reason I gave it a 4 is because it is in an older neighborhood, otherwise a 5.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r208552502-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>208552502</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Decent Place To Stay</t>
+  </si>
+  <si>
+    <t>An very affordable place to stay compared to the other hotels in the same area. Rooms were clean and relatively quiet, being in close proximity to the airport. I will most likely stay here again if I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>An very affordable place to stay compared to the other hotels in the same area. Rooms were clean and relatively quiet, being in close proximity to the airport. I will most likely stay here again if I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r205844278-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>205844278</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Great customer service!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was a bit skeptical because of the location but the price and great customer service made up for it. Upon arrival I was greeted and received with a smile from the front desk I believe Ms.Vivian was her name. I would definitely stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r195252008-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>195252008</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Very good except for</t>
+  </si>
+  <si>
+    <t>Room clean, with fridge. TV channels lacking. Stay was made unpleasant by neighbours (noisy, loud, inconsiderate). No complaint with hotel or staff. Good value for money (if you have quiet, considerate neighbours).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r190415815-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>190415815</t>
+  </si>
+  <si>
+    <t>01/10/2014</t>
+  </si>
+  <si>
+    <t>Not a good option.</t>
+  </si>
+  <si>
+    <t>This is a noisy hotel. The next building is arms length away and has dogs that bark continually if the owner is not home, I presume, because it can go on for hours and hours and then stops.  There is also airplane noise which I expected, but the street noise even in back comes right through. 
+     Main complaint is the internet didn't work AT ALL!!! I don't carry a smart phone so to me having a hotel with internet you can actually use is SO important.  The guy at lobby window did let me sit in the side room to use internet which was nice but having it when you need it and in your room is worth paying extra for elsewhere.
+     I spent a lot of time at McDonalds after that so I could use internet.
+     The hotel seems to harbor mostly longer term  boarders.  Marijuana smoke drifted out of the room nearest mine. I never once saw anyone come or go that looked like a regular traveler-yet im sure they have some.  I just didn't see one.
+      I found the bed to be fine for this price range hotel. The room was large. A waste basket in the bathroom or area of sink though would be helpful. The only one is at the entry to the room.
+       I was concerned the small lot would fill up if I left later for dinner but the lady at the desk...This is a noisy hotel. The next building is arms length away and has dogs that bark continually if the owner is not home, I presume, because it can go on for hours and hours and then stops.  There is also airplane noise which I expected, but the street noise even in back comes right through.      Main complaint is the internet didn't work AT ALL!!! I don't carry a smart phone so to me having a hotel with internet you can actually use is SO important.  The guy at lobby window did let me sit in the side room to use internet which was nice but having it when you need it and in your room is worth paying extra for elsewhere.     I spent a lot of time at McDonalds after that so I could use internet.     The hotel seems to harbor mostly longer term  boarders.  Marijuana smoke drifted out of the room nearest mine. I never once saw anyone come or go that looked like a regular traveler-yet im sure they have some.  I just didn't see one.      I found the bed to be fine for this price range hotel. The room was large. A waste basket in the bathroom or area of sink though would be helpful. The only one is at the entry to the room.       I was concerned the small lot would fill up if I left later for dinner but the lady at the desk said don't worry!  She was right.  It does have free parking.  Some hotels charge! They have a service that stops by for the airport at $10, but I had a car.        There is no elevator. You carry your bags up steps.  42 steps up to my floor....yea I counted them  4 x 8 and then a 10!  Some people with health issues or of advanced years could have real trouble here.          Some peoples reviews here said unsafe.  I didn't see anyone lurking though that looked like a danger inside the hotel property.  The area is heavily Mexican/Salvadoran so you have some good eating options out there too for those willing to go beyond the average American comfort zone.  Some of the taco trucks on Inglewood Blvd are highly rated on here and they had quite a crowd. I didn't try them as it was cold, and dark, but next time Im going to the trucks!         I don't know if they put out breakfast or not.  Usually they tell you something on checkin as to hours and location. He said nothing, but I later  saw a set up when I used the internet there. So maybe they do. However with no internet I was off to McD to eat where I could use internet.          The manager told me they were working on their internet, ETHOSTREAM to get it working right then...but nothing ever changed.  Still didn't work the next day either.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>This is a noisy hotel. The next building is arms length away and has dogs that bark continually if the owner is not home, I presume, because it can go on for hours and hours and then stops.  There is also airplane noise which I expected, but the street noise even in back comes right through. 
+     Main complaint is the internet didn't work AT ALL!!! I don't carry a smart phone so to me having a hotel with internet you can actually use is SO important.  The guy at lobby window did let me sit in the side room to use internet which was nice but having it when you need it and in your room is worth paying extra for elsewhere.
+     I spent a lot of time at McDonalds after that so I could use internet.
+     The hotel seems to harbor mostly longer term  boarders.  Marijuana smoke drifted out of the room nearest mine. I never once saw anyone come or go that looked like a regular traveler-yet im sure they have some.  I just didn't see one.
+      I found the bed to be fine for this price range hotel. The room was large. A waste basket in the bathroom or area of sink though would be helpful. The only one is at the entry to the room.
+       I was concerned the small lot would fill up if I left later for dinner but the lady at the desk...This is a noisy hotel. The next building is arms length away and has dogs that bark continually if the owner is not home, I presume, because it can go on for hours and hours and then stops.  There is also airplane noise which I expected, but the street noise even in back comes right through.      Main complaint is the internet didn't work AT ALL!!! I don't carry a smart phone so to me having a hotel with internet you can actually use is SO important.  The guy at lobby window did let me sit in the side room to use internet which was nice but having it when you need it and in your room is worth paying extra for elsewhere.     I spent a lot of time at McDonalds after that so I could use internet.     The hotel seems to harbor mostly longer term  boarders.  Marijuana smoke drifted out of the room nearest mine. I never once saw anyone come or go that looked like a regular traveler-yet im sure they have some.  I just didn't see one.      I found the bed to be fine for this price range hotel. The room was large. A waste basket in the bathroom or area of sink though would be helpful. The only one is at the entry to the room.       I was concerned the small lot would fill up if I left later for dinner but the lady at the desk said don't worry!  She was right.  It does have free parking.  Some hotels charge! They have a service that stops by for the airport at $10, but I had a car.        There is no elevator. You carry your bags up steps.  42 steps up to my floor....yea I counted them  4 x 8 and then a 10!  Some people with health issues or of advanced years could have real trouble here.          Some peoples reviews here said unsafe.  I didn't see anyone lurking though that looked like a danger inside the hotel property.  The area is heavily Mexican/Salvadoran so you have some good eating options out there too for those willing to go beyond the average American comfort zone.  Some of the taco trucks on Inglewood Blvd are highly rated on here and they had quite a crowd. I didn't try them as it was cold, and dark, but next time Im going to the trucks!         I don't know if they put out breakfast or not.  Usually they tell you something on checkin as to hours and location. He said nothing, but I later  saw a set up when I used the internet there. So maybe they do. However with no internet I was off to McD to eat where I could use internet.          The manager told me they were working on their internet, ETHOSTREAM to get it working right then...but nothing ever changed.  Still didn't work the next day either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r187753995-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>187753995</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>Decent hotel for a layover.</t>
+  </si>
+  <si>
+    <t>I stayed here in late October this year for a single night on layover after arriving from Australia.The room was very clean, quiet and the bed was very comfortable. However, the room light was motion activated, it seems and would randomly turn on during the night and wake me up.The staff were wonderfully accommodating, even allowing me to check in at around 9 am. The taxi fare from LAX to the airport is around $20 from the airport and $15 to the airport.The hotel has free wifi, which was sadly horrible. Would drop out constantly and the speeds were just as bad. I literally had faster internet speeds in Australia back in 2000. I would suggest that they invest in some better wifi repeater hardware. If the hotel management wants to reach out to me, I could suggest some alternatives.The breakfast was quite spartan, with danishes and coffee with some sort of whitening powder. We don't have "creamer" in Australia, so I found it quite terrible. For the love of god guys, please supply real milk for the coffee.On the flip side, there are several places where you can get decent takeaway food for dinner, as well as a Target a few blocks past the casino, as well as many other stores for whatever you need in the immediate vicinity.Overall, I was quite happy with my stay and would certainly stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I stayed here in late October this year for a single night on layover after arriving from Australia.The room was very clean, quiet and the bed was very comfortable. However, the room light was motion activated, it seems and would randomly turn on during the night and wake me up.The staff were wonderfully accommodating, even allowing me to check in at around 9 am. The taxi fare from LAX to the airport is around $20 from the airport and $15 to the airport.The hotel has free wifi, which was sadly horrible. Would drop out constantly and the speeds were just as bad. I literally had faster internet speeds in Australia back in 2000. I would suggest that they invest in some better wifi repeater hardware. If the hotel management wants to reach out to me, I could suggest some alternatives.The breakfast was quite spartan, with danishes and coffee with some sort of whitening powder. We don't have "creamer" in Australia, so I found it quite terrible. For the love of god guys, please supply real milk for the coffee.On the flip side, there are several places where you can get decent takeaway food for dinner, as well as a Target a few blocks past the casino, as well as many other stores for whatever you need in the immediate vicinity.Overall, I was quite happy with my stay and would certainly stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r163161070-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>163161070</t>
+  </si>
+  <si>
+    <t>06/06/2013</t>
+  </si>
+  <si>
+    <t>Good enough</t>
+  </si>
+  <si>
+    <t>We had a flight in the morning and decided we should stay as close to the airport as we can get within choice hotels options. The breakfast, indeed as the previous reviewer called, spartan, was quick and coffee was the finest addition. We used their printer and staff was helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Timesh_p, General Manager at Motel 6 Inglewood, CA, responded to this reviewResponded October 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2013</t>
+  </si>
+  <si>
+    <t>We had a flight in the morning and decided we should stay as close to the airport as we can get within choice hotels options. The breakfast, indeed as the previous reviewer called, spartan, was quick and coffee was the finest addition. We used their printer and staff was helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r162168688-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>162168688</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>GOOD VALUE AT $49.46 plus tax with a Spartan breakfast</t>
+  </si>
+  <si>
+    <t>I) HONEST CANCELLATION POLICY (a/o May 18, 2013...)
+Originally, I wanted to stay at the Comfort Suites or at the Best Western Suites, which are closer from the airport and have a free shuttle.  This would have given me an extra stay at either of my loyalty programs for the 2014 qualification.
+Unfortunately, both of them have a very dishonest cancellation policy because they want you to cancel 24 hours before the arrival day, or you lose your money!
+Dishonest, indeed, because every time that one of my flights has been cancelled (which happens more and more often nowadays!) it has never happened one day before, but always at the very last minute!
+Unfortunately, more and more hotels are now adopting this utterly dishonest cancellation policy of one day (and even more in some places!) before the arrival date.
+They get away with it simply because people accept it, until their flight is cancelled at the last minute; they lose their money and learn the hard way that they should never accept such a lion to monkey deal!  
+A few years ago, as I was checking in a hotel in San Luis Obispo (California), I witnessed a phone conversation between the hotel manager and an unfortunate passenger to whom this had just happened, and I heard the manager say that it was not the hotel's fault and that he couldn't do anything about it!
+If everybody refused to accept this...I) HONEST CANCELLATION POLICY (a/o May 18, 2013...)Originally, I wanted to stay at the Comfort Suites or at the Best Western Suites, which are closer from the airport and have a free shuttle.  This would have given me an extra stay at either of my loyalty programs for the 2014 qualification.Unfortunately, both of them have a very dishonest cancellation policy because they want you to cancel 24 hours before the arrival day, or you lose your money!Dishonest, indeed, because every time that one of my flights has been cancelled (which happens more and more often nowadays!) it has never happened one day before, but always at the very last minute!Unfortunately, more and more hotels are now adopting this utterly dishonest cancellation policy of one day (and even more in some places!) before the arrival date.They get away with it simply because people accept it, until their flight is cancelled at the last minute; they lose their money and learn the hard way that they should never accept such a lion to monkey deal!  A few years ago, as I was checking in a hotel in San Luis Obispo (California), I witnessed a phone conversation between the hotel manager and an unfortunate passenger to whom this had just happened, and I heard the manager say that it was not the hotel's fault and that he couldn't do anything about it!If everybody refused to accept this horrendous policy, as I always do systematically, those merchants would have to return to an HONEST DAY OF ARRIVAL CANCELLATION POLICY as at this Econo Lodge (BUT WARNING: only 4 pm the day of arrival, and not 6 or even 7 pm, as in Ibis or Best Western hotels in Europe!) or go out of business!As a matter of fact, I am currently holding several reservations for Ibis hotels in Madrid (Spain), Salzburg and Vienna (in Austria, of course!) for June 2013 on a "courtesy hold basis", without giving any credit card number, the way it used to be just a few years ago!II) GOOD VALUE AT $49.46 + taxROOM 321, that I got on Friday, May 18, 2013, for $49.46 plus tax including a small, Spartan breakfast, is an ordinary Econo Lodge one: half the size of room 735 at the Sheraton Four Points LAX and twice as big as my usual room at the "Lux Hotel" in Paris, where I pay twice as much without breakfast, but where I keep returning simply because it's the best value for money in Paris!This Econo room 321 has a Queen bed with one nice big side table (three times as big as the ones I have in Paris) on each side.  It also has a nice round table with two (not very soft...) assorted club chairs that you will never find in France or England at less than $200 a night!, another assorted furniture with three drawers and an old style TV with front Composite connectors.  There is also a folding luggage rack (nothing in common with the fancy wood luggage rack of the "Florida Norte Hotel" in Madrid, for which I posted a review already in TA) and plenty of space left to do your morning exercises, as it was the case in Madrid, but not in Paris!This room 321 didn't have a refrigerator, but since my reservation said "queen room with refrigerator", I complained at the front desk and the night clerk brought it when I returned from the airport at 7 pm.It would be a euphemism to say that the BATHTUB could suffer a deep cleaning...  In fact, it is black and white, like the one of the apartment that I rent in Miami Beach was when I moved in ten years ago.  However, after I scrubbed it two or three days a week and poured a couple of bottles of Clorox in it during several weeks, it eventually became white again.  The same medicine would produce the same result on this BW tub...  In the meantime, you may just keep your rubber beach slippers to get into it, holding the hand rail so that you don't slip.We are here at the antipodes of the coconut white tub I had in room 353 at the Best Western "Hôtel de France" in Bourg-en-Bresse (France), for which I posted a review during my last trip there in June 2012: the best value for money in this famous gastronomic French little town, where I will return next month to celebrate my seventieth birthday with a good meal, hoping that they will give me the same room that I had last June.When I returned the following week to this Econo Lodge LAX, I got room 307, which is much better because it is bigger, with a king bed, and has a HUUUGE BATHROOM.  The biggest bathroom I've ever seen anywhere, including the double bathroom of my favorite suite at the Sheraton Four Points in Montevideo, where you have a Jacuzzi in one side and a big shower in the other.  Well, this bath is even bigger, although without the Jacuzzi, naturally, and with another BLACK AND WHITE TUB...Also, room 307 has a wide open view towards the West (LAX) because it is higher than all other buildings in the area.BUT CAUTION: room 306, right next door, has a wall in front of the window!III) FAIRLY GOOD LOCATIONThis place is on CENTURY Boulevard between LA BREA &amp; PRAIRIE.Although it is farther from the airport than the Comfort Suites as I said, it still has a good location.  It is true that it would be a euphemism to say that it's NOT a fancy neighborhood...A FREE PUBLIC SHUTTLE will take you from the airport (all terminals) TO LAX BUS TERMINAL, where you can TAKE BUS 117 that will drop you virtually at the door; all you have to do then is cross Century Boulevard.  Get off at the first stop right after La Brea/Hawthorne Boulevards (Century divides both of them and you'll see a CVS at the corner of La Brea &amp; Century).  If you are a senior, you will only pay 25 cents to get there and 25 more to return to the airport.To go back to LAX, 117 stops a few yards from the door of this Econo Lodge and will put you into the bus terminal in about fifteen minutes, where you take the FREE PUBLIC SHUTTLE "C" to all airport terminals.  Another ten or fifteen minutes and you are having your porn picture taken at the airport Security; unless you prefer to have a "love padding", or unless you are a "TSA Pre Screened", in which case you will avoid both... That's what I did myself, because I preferred to pay 25 cents (as a senior, between 9 am and 3 pm and after 7 pm, and all day on weekends and holidays) rather than paying "mucho money" ($10 per trip!) for the private shuttle proposed by this Econo Lodge in their website.On my first trip there, after I dropped my luggage in the room, I walked back to the bus terminal and took the shuttle to the airport, in order to get my boarding card for the next day.  I returned the same way, just for the pleasure of the exercise.  But it is true that I am already 69 years young.  Many of my young FIU students could hardly follow...This only took me a couple of hours each way, with a technical stopover to drink (and undrink) at a McDonald’s in front of the Holiday Inn, about half way, in each direction.SEVERAL EATERIES open their doors, either on La Brea (where there is a CVS), or on Prairie, all within a walking distance.Jack in the Box is only half a block away, towards Prairie, and you will find a McDonald’s, a Church’s and a Taco Bell fast food eateries less than two blocks from this Econo Lodge, at the corner of Century and Prairie.There is also what seems to be a real restaurant right at the corner, on the other side of the street, at a cheap, all suites hotel called "Los Angeles Adventurer" (4200 W Century), where I would like to go but where I have never been because they also have a dishonest cancellation policy of one day before the day of arrival.  Without that policy, I would have certainly tried that suite hotel already. And if you take bus 117 towards the east, you will see a big shopping complex on both sides of Century, around the 3400s.  That’s around the corner…Unless you prefer to walk, as I did on Memorial Day and, as I was entering the complex twenty minutes later, the bus was still a couple of blocks away.In this big shopping, you will see a HUUUGE BUFFET in a place called “Royal Buffet” for which I also posted a review here.IN SHORT, this Econo Lodge is very far from fancier places BUT it is CHEAP and fairly well maintained.  Except for the black and white tub (which could become all white after falling on four legs and scrubbing, scrubbing, scrubbing with lots and lots of Clorox...) I have no complaints about the rest.EXCEPT that, unlike Motel 6 or the Sheraton Four Points, it has a BAD NOISE INSULATION.  This means that it is NOISY DAY AND NIGHT, and you will hear all sorts of noises, from birds singing at 4 am to people TALKING and WALKING on the hall outside the room or going down the stairs (right next to room 321), to ambulances blowing their SIRENS 24 hours a day, and PLANES landing or taking off.  Here, also, we are at the antipodes of the IBIS LHR (London Heathrow airport), where I didn't hear the slightest noise from planes landing one block away from my window.  If you are going to London, you may want to read my review, posted here in March 2013.WARNING!  As I have already noticed in several hotels in California, there are ROOMS WITH A WALL 5 feet from the window, as I wrote already!!!  I therefore suggest that you SEE the room BEFORE checking in and opening your skinny wallet.  Skinny wallet, indeed, because if it was fat..., you wouldn't be reading this review!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Timesh_p, Owner at Motel 6 Inglewood, CA, responded to this reviewResponded October 16, 2013</t>
+  </si>
+  <si>
+    <t>I) HONEST CANCELLATION POLICY (a/o May 18, 2013...)
+Originally, I wanted to stay at the Comfort Suites or at the Best Western Suites, which are closer from the airport and have a free shuttle.  This would have given me an extra stay at either of my loyalty programs for the 2014 qualification.
+Unfortunately, both of them have a very dishonest cancellation policy because they want you to cancel 24 hours before the arrival day, or you lose your money!
+Dishonest, indeed, because every time that one of my flights has been cancelled (which happens more and more often nowadays!) it has never happened one day before, but always at the very last minute!
+Unfortunately, more and more hotels are now adopting this utterly dishonest cancellation policy of one day (and even more in some places!) before the arrival date.
+They get away with it simply because people accept it, until their flight is cancelled at the last minute; they lose their money and learn the hard way that they should never accept such a lion to monkey deal!  
+A few years ago, as I was checking in a hotel in San Luis Obispo (California), I witnessed a phone conversation between the hotel manager and an unfortunate passenger to whom this had just happened, and I heard the manager say that it was not the hotel's fault and that he couldn't do anything about it!
+If everybody refused to accept this...I) HONEST CANCELLATION POLICY (a/o May 18, 2013...)Originally, I wanted to stay at the Comfort Suites or at the Best Western Suites, which are closer from the airport and have a free shuttle.  This would have given me an extra stay at either of my loyalty programs for the 2014 qualification.Unfortunately, both of them have a very dishonest cancellation policy because they want you to cancel 24 hours before the arrival day, or you lose your money!Dishonest, indeed, because every time that one of my flights has been cancelled (which happens more and more often nowadays!) it has never happened one day before, but always at the very last minute!Unfortunately, more and more hotels are now adopting this utterly dishonest cancellation policy of one day (and even more in some places!) before the arrival date.They get away with it simply because people accept it, until their flight is cancelled at the last minute; they lose their money and learn the hard way that they should never accept such a lion to monkey deal!  A few years ago, as I was checking in a hotel in San Luis Obispo (California), I witnessed a phone conversation between the hotel manager and an unfortunate passenger to whom this had just happened, and I heard the manager say that it was not the hotel's fault and that he couldn't do anything about it!If everybody refused to accept this horrendous policy, as I always do systematically, those merchants would have to return to an HONEST DAY OF ARRIVAL CANCELLATION POLICY as at this Econo Lodge (BUT WARNING: only 4 pm the day of arrival, and not 6 or even 7 pm, as in Ibis or Best Western hotels in Europe!) or go out of business!As a matter of fact, I am currently holding several reservations for Ibis hotels in Madrid (Spain), Salzburg and Vienna (in Austria, of course!) for June 2013 on a "courtesy hold basis", without giving any credit card number, the way it used to be just a few years ago!II) GOOD VALUE AT $49.46 + taxROOM 321, that I got on Friday, May 18, 2013, for $49.46 plus tax including a small, Spartan breakfast, is an ordinary Econo Lodge one: half the size of room 735 at the Sheraton Four Points LAX and twice as big as my usual room at the "Lux Hotel" in Paris, where I pay twice as much without breakfast, but where I keep returning simply because it's the best value for money in Paris!This Econo room 321 has a Queen bed with one nice big side table (three times as big as the ones I have in Paris) on each side.  It also has a nice round table with two (not very soft...) assorted club chairs that you will never find in France or England at less than $200 a night!, another assorted furniture with three drawers and an old style TV with front Composite connectors.  There is also a folding luggage rack (nothing in common with the fancy wood luggage rack of the "Florida Norte Hotel" in Madrid, for which I posted a review already in TA) and plenty of space left to do your morning exercises, as it was the case in Madrid, but not in Paris!This room 321 didn't have a refrigerator, but since my reservation said "queen room with refrigerator", I complained at the front desk and the night clerk brought it when I returned from the airport at 7 pm.It would be a euphemism to say that the BATHTUB could suffer a deep cleaning...  In fact, it is black and white, like the one of the apartment that I rent in Miami Beach was when I moved in ten years ago.  However, after I scrubbed it two or three days a week and poured a couple of bottles of Clorox in it during several weeks, it eventually became white again.  The same medicine would produce the same result on this BW tub...  In the meantime, you may just keep your rubber beach slippers to get into it, holding the hand rail so that you don't slip.We are here at the antipodes of the coconut white tub I had in room 353 at the Best Western "Hôtel de France" in Bourg-en-Bresse (France), for which I posted a review during my last trip there in June 2012: the best value for money in this famous gastronomic French little town, where I will return next month to celebrate my seventieth birthday with a good meal, hoping that they will give me the same room that I had last June.When I returned the following week to this Econo Lodge LAX, I got room 307, which is much better because it is bigger, with a king bed, and has a HUUUGE BATHROOM.  The biggest bathroom I've ever seen anywhere, including the double bathroom of my favorite suite at the Sheraton Four Points in Montevideo, where you have a Jacuzzi in one side and a big shower in the other.  Well, this bath is even bigger, although without the Jacuzzi, naturally, and with another BLACK AND WHITE TUB...Also, room 307 has a wide open view towards the West (LAX) because it is higher than all other buildings in the area.BUT CAUTION: room 306, right next door, has a wall in front of the window!III) FAIRLY GOOD LOCATIONThis place is on CENTURY Boulevard between LA BREA &amp; PRAIRIE.Although it is farther from the airport than the Comfort Suites as I said, it still has a good location.  It is true that it would be a euphemism to say that it's NOT a fancy neighborhood...A FREE PUBLIC SHUTTLE will take you from the airport (all terminals) TO LAX BUS TERMINAL, where you can TAKE BUS 117 that will drop you virtually at the door; all you have to do then is cross Century Boulevard.  Get off at the first stop right after La Brea/Hawthorne Boulevards (Century divides both of them and you'll see a CVS at the corner of La Brea &amp; Century).  If you are a senior, you will only pay 25 cents to get there and 25 more to return to the airport.To go back to LAX, 117 stops a few yards from the door of this Econo Lodge and will put you into the bus terminal in about fifteen minutes, where you take the FREE PUBLIC SHUTTLE "C" to all airport terminals.  Another ten or fifteen minutes and you are having your porn picture taken at the airport Security; unless you prefer to have a "love padding", or unless you are a "TSA Pre Screened", in which case you will avoid both... That's what I did myself, because I preferred to pay 25 cents (as a senior, between 9 am and 3 pm and after 7 pm, and all day on weekends and holidays) rather than paying "mucho money" ($10 per trip!) for the private shuttle proposed by this Econo Lodge in their website.On my first trip there, after I dropped my luggage in the room, I walked back to the bus terminal and took the shuttle to the airport, in order to get my boarding card for the next day.  I returned the same way, just for the pleasure of the exercise.  But it is true that I am already 69 years young.  Many of my young FIU students could hardly follow...This only took me a couple of hours each way, with a technical stopover to drink (and undrink) at a McDonald’s in front of the Holiday Inn, about half way, in each direction.SEVERAL EATERIES open their doors, either on La Brea (where there is a CVS), or on Prairie, all within a walking distance.Jack in the Box is only half a block away, towards Prairie, and you will find a McDonald’s, a Church’s and a Taco Bell fast food eateries less than two blocks from this Econo Lodge, at the corner of Century and Prairie.There is also what seems to be a real restaurant right at the corner, on the other side of the street, at a cheap, all suites hotel called "Los Angeles Adventurer" (4200 W Century), where I would like to go but where I have never been because they also have a dishonest cancellation policy of one day before the day of arrival.  Without that policy, I would have certainly tried that suite hotel already. And if you take bus 117 towards the east, you will see a big shopping complex on both sides of Century, around the 3400s.  That’s around the corner…Unless you prefer to walk, as I did on Memorial Day and, as I was entering the complex twenty minutes later, the bus was still a couple of blocks away.In this big shopping, you will see a HUUUGE BUFFET in a place called “Royal Buffet” for which I also posted a review here.IN SHORT, this Econo Lodge is very far from fancier places BUT it is CHEAP and fairly well maintained.  Except for the black and white tub (which could become all white after falling on four legs and scrubbing, scrubbing, scrubbing with lots and lots of Clorox...) I have no complaints about the rest.EXCEPT that, unlike Motel 6 or the Sheraton Four Points, it has a BAD NOISE INSULATION.  This means that it is NOISY DAY AND NIGHT, and you will hear all sorts of noises, from birds singing at 4 am to people TALKING and WALKING on the hall outside the room or going down the stairs (right next to room 321), to ambulances blowing their SIRENS 24 hours a day, and PLANES landing or taking off.  Here, also, we are at the antipodes of the IBIS LHR (London Heathrow airport), where I didn't hear the slightest noise from planes landing one block away from my window.  If you are going to London, you may want to read my review, posted here in March 2013.WARNING!  As I have already noticed in several hotels in California, there are ROOMS WITH A WALL 5 feet from the window, as I wrote already!!!  I therefore suggest that you SEE the room BEFORE checking in and opening your skinny wallet.  Skinny wallet, indeed, because if it was fat..., you wouldn't be reading this review!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r155466987-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>155466987</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Below-par EconoLodge, but gets you through the night</t>
+  </si>
+  <si>
+    <t>I just needed to stay the night, my flight was getting in at 11 PM and I needed to leave early in the morning anyways, so I wasn't particularly picky about what I booked, so I just went for the cheapest thing available. But for the money ($55 with tax), I have seen better hotels. I know the area is expensive, but this Econo Lodge was below-par in my book - the location is rather "sketchy", I didn't feel safe (the hallways, parking area are poorly lit). The building itself is rather old and run down, the rooms were clean, however the TV was extremely old and the bed wasn't all too comfortable. In the morning I went to get breakfast, all they had were bananas, apples, something like hot pockets, and coffee. Not a very filling breakfast. Anyways, bottom line: not thrilled, but it got me through the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Timesh_p, Manager at Motel 6 Inglewood, CA, responded to this reviewResponded October 16, 2013</t>
+  </si>
+  <si>
+    <t>I just needed to stay the night, my flight was getting in at 11 PM and I needed to leave early in the morning anyways, so I wasn't particularly picky about what I booked, so I just went for the cheapest thing available. But for the money ($55 with tax), I have seen better hotels. I know the area is expensive, but this Econo Lodge was below-par in my book - the location is rather "sketchy", I didn't feel safe (the hallways, parking area are poorly lit). The building itself is rather old and run down, the rooms were clean, however the TV was extremely old and the bed wasn't all too comfortable. In the morning I went to get breakfast, all they had were bananas, apples, something like hot pockets, and coffee. Not a very filling breakfast. Anyways, bottom line: not thrilled, but it got me through the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r140588354-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>140588354</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>I Guess It's Okay For The Price</t>
+  </si>
+  <si>
+    <t>Well, the room was okay nothing spectacular. I reserved two beds and only got one.The brighter side is that the Hotel is close to food and shopping, and me and my family was able to attend a cool carnival at the Hollywood Park. The only thing that bothered me the most was that the hotel receptionist kept calling my room 30 minutes before check out. Give me a break CHECKOUT IS NOT TIL 12pm....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r140236104-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>140236104</t>
+  </si>
+  <si>
+    <t>09/14/2012</t>
+  </si>
+  <si>
+    <t>To Live and Die in L.A. it's the place to be!</t>
+  </si>
+  <si>
+    <t>Not the nicest of locations. Cost 60 USD for double room which is as cheap as I could find in the area. The room was nice and big with decent shower and TV. Also, included a free breakfast in morning but only consisted of donuts, fruit loops, coffee and cranberry juice- not my personal preference! Guys at reception were very helpful with enquiries. Hotel also had free wifi. Would stay as a stop over either leaving or going to the airport, but no longer!</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r138588488-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>138588488</t>
+  </si>
+  <si>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>Good if you think about the price. Only to sleep</t>
+  </si>
+  <si>
+    <t>Whe spend one night and its very close the airport. The rooms are OK, the breakast its no so good. You have no place where to have a sit and you must drink your cofee stand up. Its ok to stay only one nigth. The neibohord its not very nice to be at nigth.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r129991566-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>129991566</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>Quick Stop</t>
+  </si>
+  <si>
+    <t>I booked this room while i was on my way to Panama and it was perfect!! The hotel agent Tim help me with a shuttle to the airport and also suggested a Hotel to stay at in Panama.  This place is very close to airport and also the breakfast held me over until i landed at my final destination!!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r126020136-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>126020136</t>
+  </si>
+  <si>
+    <t>03/12/2012</t>
+  </si>
+  <si>
+    <t>Worse hotel on my trip</t>
+  </si>
+  <si>
+    <t>NOT RECOMENDED AT ALL. Guy at front desk called "Mr Ricardo" is very helpful, nice &amp; humble but the hotel condition is not good. The area is scary and looks like full of gangs. Continental breakfast is CRAP here. NO Tea at all. No water. Third class cofee.I had better experience in other hotels than this one.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r123090524-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>123090524</t>
+  </si>
+  <si>
+    <t>01/14/2012</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>When I came back from my trip to find my car was broken into (back window was broken out), my stereo was torn out, my ipod was gone, my battery was dead and my car was in shambles, I knew it was the risk of parking in the area.  I assumed that since I paid for the parking and paid for the shuttle that there would be at least a little liability on the part of the hotel.  After leaving seven messages with the manager, and contacting customer relations multiple times, I have not gotten a single call.  DO NOT STAY HERE!  At the very least I would expect my stay to be comped, but not even that, let a lone a return call.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>When I came back from my trip to find my car was broken into (back window was broken out), my stereo was torn out, my ipod was gone, my battery was dead and my car was in shambles, I knew it was the risk of parking in the area.  I assumed that since I paid for the parking and paid for the shuttle that there would be at least a little liability on the part of the hotel.  After leaving seven messages with the manager, and contacting customer relations multiple times, I have not gotten a single call.  DO NOT STAY HERE!  At the very least I would expect my stay to be comped, but not even that, let a lone a return call.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r121781582-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>121781582</t>
+  </si>
+  <si>
+    <t>12/15/2011</t>
+  </si>
+  <si>
+    <t>Terrible service and neighborhood</t>
+  </si>
+  <si>
+    <t>Stay away from this place. The rooms are dirty, the surrounding area is infested with vagrants and the hotel seemed to be occupied by mostly prostitutes from the "gentleman's" club down the street.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r117843993-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>117843993</t>
+  </si>
+  <si>
+    <t>09/08/2011</t>
+  </si>
+  <si>
+    <t>Yick!</t>
+  </si>
+  <si>
+    <t>About the best I can say for this place is that is has a roof and beds.  It's a LONNNG G way from LAX.  It's dirty, staff is unfriendly, "breakfast" is shabby, beds are uncomfortable, barking dogs would have kept us up had we not been so travel weary.   We waited for 45 mins for the airport shuttle, then finally gave up and took a $20 cab ride.  This place makes sleeping under a bridge seem like a favorable option.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r111795946-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>111795946</t>
+  </si>
+  <si>
+    <t>06/06/2011</t>
+  </si>
+  <si>
+    <t>Just don't do it!</t>
+  </si>
+  <si>
+    <t>I have spent my life travelling for work so I have stayed in many different classes of hotel. I do not require much since for the most part I just sleep in the room.For this trip I was going to be in the room for only 6 hours so I looked for the least expensive hotel near LAX that met all of my needs (No smoking room, close to LAX, free parking, internet access, breakfast, clean and safe).This was such a dissapointment! The room was musty and dirty with poorly lit hallways. My first warning was when I went to check in and the front desk clerk was behind security glass (like in the bank)!Never again. Stained ceilings, dirty phone and remote, spiders, broken lock on room door. I took pictures to post in my office to warn coworkers to stay away from this place. This is the only hotel that I have ever slept in my bed fully clothed with all of the lights on!Oh, BTW, that breakfast that they advertized.......a pot of coffee and a box of 6 donuts in the lobby!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>I have spent my life travelling for work so I have stayed in many different classes of hotel. I do not require much since for the most part I just sleep in the room.For this trip I was going to be in the room for only 6 hours so I looked for the least expensive hotel near LAX that met all of my needs (No smoking room, close to LAX, free parking, internet access, breakfast, clean and safe).This was such a dissapointment! The room was musty and dirty with poorly lit hallways. My first warning was when I went to check in and the front desk clerk was behind security glass (like in the bank)!Never again. Stained ceilings, dirty phone and remote, spiders, broken lock on room door. I took pictures to post in my office to warn coworkers to stay away from this place. This is the only hotel that I have ever slept in my bed fully clothed with all of the lights on!Oh, BTW, that breakfast that they advertized.......a pot of coffee and a box of 6 donuts in the lobby!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r68102244-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>68102244</t>
+  </si>
+  <si>
+    <t>06/20/2010</t>
+  </si>
+  <si>
+    <t>Great location &amp; free transport</t>
+  </si>
+  <si>
+    <t>It was nice to check in my car and stay here for early departure. Breakfast was good, transport was free and quick hassle free. Not fancy but clean. quiet pool</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r56520095-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>56520095</t>
+  </si>
+  <si>
+    <t>02/19/2010</t>
+  </si>
+  <si>
+    <t>Give it a miss</t>
+  </si>
+  <si>
+    <t>Arrived late into LA and needed a place to stay for one night, prior to moving closer into town the next day. My friend booked this online. I checked out their website and they advised they had a shuttle service. On arrival at LAX we found the red shuttle bus service. They gave us a '"free" card for our shuttle bus to this place. They then made us wait for three and a bit hours. When we finally got dropped off last (we were two females), the shuttle driver went into reception and handed a card to the guy on the counter who gave him money. The reception guy asked us to pre-pay for the room, but added an extra $15US onto the price - for the 'shuttle'. I showed him the card we were give by the shuttle driver and he basically said bad luck. This was clearly a con and there was not much we could do about it as it was 2.30am by this time and we were desperate for some sleep. We went up to the room and found it was a double not a twin as requested. A guard dog in a panel shop across the road barked all night. The towels were threadbare, a towel rack in the bathroom was hanging out of the wall and the room stunk. On waking the next morning, we walked up the street to Maccas for breakfast and...Arrived late into LA and needed a place to stay for one night, prior to moving closer into town the next day. My friend booked this online. I checked out their website and they advised they had a shuttle service. On arrival at LAX we found the red shuttle bus service. They gave us a '"free" card for our shuttle bus to this place. They then made us wait for three and a bit hours. When we finally got dropped off last (we were two females), the shuttle driver went into reception and handed a card to the guy on the counter who gave him money. The reception guy asked us to pre-pay for the room, but added an extra $15US onto the price - for the 'shuttle'. I showed him the card we were give by the shuttle driver and he basically said bad luck. This was clearly a con and there was not much we could do about it as it was 2.30am by this time and we were desperate for some sleep. We went up to the room and found it was a double not a twin as requested. A guard dog in a panel shop across the road barked all night. The towels were threadbare, a towel rack in the bathroom was hanging out of the wall and the room stunk. On waking the next morning, we walked up the street to Maccas for breakfast and discovered we were possibly in the most seediest part of LA. The hotel is surrounded by smallish panel repair shops and run down houses. If you're looking for a lower cost place near the airport, I'd suggest you look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>Timesh_p, General Manager at Motel 6 Inglewood, CA, responded to this reviewResponded May 9, 2010</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2010</t>
+  </si>
+  <si>
+    <t>Arrived late into LA and needed a place to stay for one night, prior to moving closer into town the next day. My friend booked this online. I checked out their website and they advised they had a shuttle service. On arrival at LAX we found the red shuttle bus service. They gave us a '"free" card for our shuttle bus to this place. They then made us wait for three and a bit hours. When we finally got dropped off last (we were two females), the shuttle driver went into reception and handed a card to the guy on the counter who gave him money. The reception guy asked us to pre-pay for the room, but added an extra $15US onto the price - for the 'shuttle'. I showed him the card we were give by the shuttle driver and he basically said bad luck. This was clearly a con and there was not much we could do about it as it was 2.30am by this time and we were desperate for some sleep. We went up to the room and found it was a double not a twin as requested. A guard dog in a panel shop across the road barked all night. The towels were threadbare, a towel rack in the bathroom was hanging out of the wall and the room stunk. On waking the next morning, we walked up the street to Maccas for breakfast and...Arrived late into LA and needed a place to stay for one night, prior to moving closer into town the next day. My friend booked this online. I checked out their website and they advised they had a shuttle service. On arrival at LAX we found the red shuttle bus service. They gave us a '"free" card for our shuttle bus to this place. They then made us wait for three and a bit hours. When we finally got dropped off last (we were two females), the shuttle driver went into reception and handed a card to the guy on the counter who gave him money. The reception guy asked us to pre-pay for the room, but added an extra $15US onto the price - for the 'shuttle'. I showed him the card we were give by the shuttle driver and he basically said bad luck. This was clearly a con and there was not much we could do about it as it was 2.30am by this time and we were desperate for some sleep. We went up to the room and found it was a double not a twin as requested. A guard dog in a panel shop across the road barked all night. The towels were threadbare, a towel rack in the bathroom was hanging out of the wall and the room stunk. On waking the next morning, we walked up the street to Maccas for breakfast and discovered we were possibly in the most seediest part of LA. The hotel is surrounded by smallish panel repair shops and run down houses. If you're looking for a lower cost place near the airport, I'd suggest you look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r19256121-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>19256121</t>
+  </si>
+  <si>
+    <t>08/22/2008</t>
+  </si>
+  <si>
+    <t>Don't waste your money staying here</t>
+  </si>
+  <si>
+    <t>This hotel was nothing like how it was portrayed in their website.  Being part of ChoiceHotels I expected it to be a nice hotel, maybe not as nice as a Comfort Inn since it's a little less expensive, but at least somewhat decent.  It was a total disappointment.First of all, I was charged more for the room than what was posted on the website.  When I arrived at the hotel they downgraded me to a one-bed room but still charged me for the two-bed room that I reserved.  When I got to the room it was dirty and there was nothing about it worth paying $100 a night for.  The refrigerator smelled and leaked and didn't really get cold.  The cable didn't work on the tv and there were holes in the walls.  Had I payed half of what I did, this wouldn't have been as big of a deal since it was at least close to the airport.  Still, it was a rip-off and I wouldn't recommend it to anyone.  Because of this experience, I wouldn't even consider staying at any of the Choice Hotels.  I'm sure there are other hotels out there that don't charge as much and offer much better amenities than this one.  Please, don't waste your money!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>Timesh_p, Owner/ New manager at Motel 6 Inglewood, CA, responded to this reviewResponded December 14, 2009</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2009</t>
+  </si>
+  <si>
+    <t>This hotel was nothing like how it was portrayed in their website.  Being part of ChoiceHotels I expected it to be a nice hotel, maybe not as nice as a Comfort Inn since it's a little less expensive, but at least somewhat decent.  It was a total disappointment.First of all, I was charged more for the room than what was posted on the website.  When I arrived at the hotel they downgraded me to a one-bed room but still charged me for the two-bed room that I reserved.  When I got to the room it was dirty and there was nothing about it worth paying $100 a night for.  The refrigerator smelled and leaked and didn't really get cold.  The cable didn't work on the tv and there were holes in the walls.  Had I payed half of what I did, this wouldn't have been as big of a deal since it was at least close to the airport.  Still, it was a rip-off and I wouldn't recommend it to anyone.  Because of this experience, I wouldn't even consider staying at any of the Choice Hotels.  I'm sure there are other hotels out there that don't charge as much and offer much better amenities than this one.  Please, don't waste your money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r15825422-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>15825422</t>
+  </si>
+  <si>
+    <t>05/08/2008</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>The staff were very rude and unhelpful. The hotel is in the rough part of LA. Found lots of bed bugs  crawling from out of the mattress. When we pointed this out to the staff they couldn´t care less. Never ever would stay there again as this has been our worst hotel to stay in over a year of travelling around the world.</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r15091389-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>15091389</t>
+  </si>
+  <si>
+    <t>04/16/2008</t>
+  </si>
+  <si>
+    <t>Uggh,bad,bad , bad</t>
+  </si>
+  <si>
+    <t>I booked this 'pit over the 'net. It looked okay online,but when I got there I was very concerned. The 'lobby' is a piece of bulletproof (that's what it said) glass.Behind it was a miserable excuse of a man. Now i work with miserable people at work ,but this guy took the cake. The room was worn,not elevator,no internet,ac unit barely worked. I was awoken to gunshots (no lie!!) on the 1st nite. Housekeeping turns off the AC  when you're away,so you come back to a hot room. The neighborhood is bad,especially at night. Do not go out after dark!!  Please,look elsewhere!!!</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r14706049-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>14706049</t>
+  </si>
+  <si>
+    <t>04/01/2008</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>OMG where to start! Just by reading the other reviews im glad that i am not alone in thinking this place is the worst! The hotel stated that they would pick myself and other companions at the LA airport. It took us forever to actually get through to them and by the time they eventually came to pick us up nearly an hour had passed. The lobby and stairway was disgusting, not to mention our rooms. It is in the worst neighborhood and on of our rooms was broken into and passports stolen! They gave us no help towards travel to and from the hostel and to eventually get back to the airport we had to arrive 2 hours earlier then we were meant to as the shuttle had overbooked and otherwise we would miss our flight! worst two nights ever!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>OMG where to start! Just by reading the other reviews im glad that i am not alone in thinking this place is the worst! The hotel stated that they would pick myself and other companions at the LA airport. It took us forever to actually get through to them and by the time they eventually came to pick us up nearly an hour had passed. The lobby and stairway was disgusting, not to mention our rooms. It is in the worst neighborhood and on of our rooms was broken into and passports stolen! They gave us no help towards travel to and from the hostel and to eventually get back to the airport we had to arrive 2 hours earlier then we were meant to as the shuttle had overbooked and otherwise we would miss our flight! worst two nights ever!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r12911342-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>12911342</t>
+  </si>
+  <si>
+    <t>01/23/2008</t>
+  </si>
+  <si>
+    <t>Not again</t>
+  </si>
+  <si>
+    <t>The lobby was under construction but no big deal while I was there. Although my room was supposedly non-smoking it stunk. The TV was very fuzzy but the real concern I had was the door locks were close to falling off the hinges. It looked like someone had tried to break in before. I was right above the lobby so probably fairly safe but it was a tad disconcerting. Also the room had not been cleaned properly. I found evidence of previous tenants. I asked to get a room furthur back, (away from the street), but was informed that they were all two bedrooms. I doubt the accuracy of that statement. There was a small frig in the room but I turned it off as it was so loud. (Admittedly I am a light sleeper). One of the light bulbs in the room was burnt out. Well, the price was right! And there was a free copy of USA today and the manager told me about a good place for breakfast in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>The lobby was under construction but no big deal while I was there. Although my room was supposedly non-smoking it stunk. The TV was very fuzzy but the real concern I had was the door locks were close to falling off the hinges. It looked like someone had tried to break in before. I was right above the lobby so probably fairly safe but it was a tad disconcerting. Also the room had not been cleaned properly. I found evidence of previous tenants. I asked to get a room furthur back, (away from the street), but was informed that they were all two bedrooms. I doubt the accuracy of that statement. There was a small frig in the room but I turned it off as it was so loud. (Admittedly I am a light sleeper). One of the light bulbs in the room was burnt out. Well, the price was right! And there was a free copy of USA today and the manager told me about a good place for breakfast in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r10800754-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>10800754</t>
+  </si>
+  <si>
+    <t>11/13/2007</t>
+  </si>
+  <si>
+    <t>The worse hotel I have ever been around the world</t>
+  </si>
+  <si>
+    <t>1. The girl in reception office didn't look at my face in any moment, making me feel I was going to a prison, but not a hotel.
+2. She demonstrated me she didn't know how to treat the people because she didn't say at least "I'm sorry" when I had to come back to the office because the key didn't open the door of my room. Without looking at my faces, she only made a new card-key and gave me without any word.
+3. She didn't told me a right information when I asked her about the internet: she told me to connect at my computer the telephone cable and no more. So I had to ask her about an user and a password. Then she told me the right answer. But when I was in my room, I realised that she should give me the telephone number I have to call to use the telephone cable. Fortunately, my computer detected the wifi and I tried with the user and password told, so it worked. But I asked myself: ¿Is it that the girl doesn't know what is the kind of internet connection it's working in the hotel?
+4. The entrance to the hotel was depressing, but when I came to my room, it was even worse. Towels were clean but broken and very used, the same with the coverage of bed, the restroom was full of insects, the W.C...1. The girl in reception office didn't look at my face in any moment, making me feel I was going to a prison, but not a hotel.2. She demonstrated me she didn't know how to treat the people because she didn't say at least "I'm sorry" when I had to come back to the office because the key didn't open the door of my room. Without looking at my faces, she only made a new card-key and gave me without any word.3. She didn't told me a right information when I asked her about the internet: she told me to connect at my computer the telephone cable and no more. So I had to ask her about an user and a password. Then she told me the right answer. But when I was in my room, I realised that she should give me the telephone number I have to call to use the telephone cable. Fortunately, my computer detected the wifi and I tried with the user and password told, so it worked. But I asked myself: ¿Is it that the girl doesn't know what is the kind of internet connection it's working in the hotel?4. The entrance to the hotel was depressing, but when I came to my room, it was even worse. Towels were clean but broken and very used, the same with the coverage of bed, the restroom was full of insects, the W.C without tap, the sink hadn't tap and the griffin was broken too. In the bath I could find two hairs of the previous guest.5. One of the lamps in the bed hadn't bulb, so the room was really darker and depressing.6. The TV screen is so older and used that you see all the image green.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>1. The girl in reception office didn't look at my face in any moment, making me feel I was going to a prison, but not a hotel.
+2. She demonstrated me she didn't know how to treat the people because she didn't say at least "I'm sorry" when I had to come back to the office because the key didn't open the door of my room. Without looking at my faces, she only made a new card-key and gave me without any word.
+3. She didn't told me a right information when I asked her about the internet: she told me to connect at my computer the telephone cable and no more. So I had to ask her about an user and a password. Then she told me the right answer. But when I was in my room, I realised that she should give me the telephone number I have to call to use the telephone cable. Fortunately, my computer detected the wifi and I tried with the user and password told, so it worked. But I asked myself: ¿Is it that the girl doesn't know what is the kind of internet connection it's working in the hotel?
+4. The entrance to the hotel was depressing, but when I came to my room, it was even worse. Towels were clean but broken and very used, the same with the coverage of bed, the restroom was full of insects, the W.C...1. The girl in reception office didn't look at my face in any moment, making me feel I was going to a prison, but not a hotel.2. She demonstrated me she didn't know how to treat the people because she didn't say at least "I'm sorry" when I had to come back to the office because the key didn't open the door of my room. Without looking at my faces, she only made a new card-key and gave me without any word.3. She didn't told me a right information when I asked her about the internet: she told me to connect at my computer the telephone cable and no more. So I had to ask her about an user and a password. Then she told me the right answer. But when I was in my room, I realised that she should give me the telephone number I have to call to use the telephone cable. Fortunately, my computer detected the wifi and I tried with the user and password told, so it worked. But I asked myself: ¿Is it that the girl doesn't know what is the kind of internet connection it's working in the hotel?4. The entrance to the hotel was depressing, but when I came to my room, it was even worse. Towels were clean but broken and very used, the same with the coverage of bed, the restroom was full of insects, the W.C without tap, the sink hadn't tap and the griffin was broken too. In the bath I could find two hairs of the previous guest.5. One of the lamps in the bed hadn't bulb, so the room was really darker and depressing.6. The TV screen is so older and used that you see all the image green.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r10358849-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>10358849</t>
+  </si>
+  <si>
+    <t>10/26/2007</t>
+  </si>
+  <si>
+    <t>Wouldn't stay again if it was free</t>
+  </si>
+  <si>
+    <t>We stayed here for one night and payed just under $70.00 for 2 people.  The whole experience was horrible.  First upon checking in around 7:30 p.m. we were told the credit card machine was down so cash only.  We stated it wasn't an option we were going to use a credit card. As there was only one person working at the entire hotel she finally stated fine I'll call you when it's working again.  We stated we'd rather just pay in the morning as it had been a long day but no she would call us.  She did finally call around 9-9:30p.m we were already in bed so my husband had to get dressed to go down and pay.  The curtains in the room were torn off the rod in the middle so they hung slightly open, the light on the ceiling had no light bulb so there was only 1 small light on each side of the bed to try and read by.  The next morning upon getting in the shower we found out there was soap left in it  with hair on it from the maid and there was only cold water coming out as the shower head was stripped.  We called the front desk but as I was freezing from this experience I had already given up on a shower.  The front desk sent a man to check it and he confirmed it was stripped.  Then about...We stayed here for one night and payed just under $70.00 for 2 people.  The whole experience was horrible.  First upon checking in around 7:30 p.m. we were told the credit card machine was down so cash only.  We stated it wasn't an option we were going to use a credit card. As there was only one person working at the entire hotel she finally stated fine I'll call you when it's working again.  We stated we'd rather just pay in the morning as it had been a long day but no she would call us.  She did finally call around 9-9:30p.m we were already in bed so my husband had to get dressed to go down and pay.  The curtains in the room were torn off the rod in the middle so they hung slightly open, the light on the ceiling had no light bulb so there was only 1 small light on each side of the bed to try and read by.  The next morning upon getting in the shower we found out there was soap left in it  with hair on it from the maid and there was only cold water coming out as the shower head was stripped.  We called the front desk but as I was freezing from this experience I had already given up on a shower.  The front desk sent a man to check it and he confirmed it was stripped.  Then about a half hour after the man checked and we were ready to just get out of there the front desk called (too late)  to tell us we could use another room to shower.  The blow dryer was cracked in 2 places and looked dangerous.  Upon checking out the front desk was horrible, but finally offered to give us 10 percent off--what an insult after that experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>We stayed here for one night and payed just under $70.00 for 2 people.  The whole experience was horrible.  First upon checking in around 7:30 p.m. we were told the credit card machine was down so cash only.  We stated it wasn't an option we were going to use a credit card. As there was only one person working at the entire hotel she finally stated fine I'll call you when it's working again.  We stated we'd rather just pay in the morning as it had been a long day but no she would call us.  She did finally call around 9-9:30p.m we were already in bed so my husband had to get dressed to go down and pay.  The curtains in the room were torn off the rod in the middle so they hung slightly open, the light on the ceiling had no light bulb so there was only 1 small light on each side of the bed to try and read by.  The next morning upon getting in the shower we found out there was soap left in it  with hair on it from the maid and there was only cold water coming out as the shower head was stripped.  We called the front desk but as I was freezing from this experience I had already given up on a shower.  The front desk sent a man to check it and he confirmed it was stripped.  Then about...We stayed here for one night and payed just under $70.00 for 2 people.  The whole experience was horrible.  First upon checking in around 7:30 p.m. we were told the credit card machine was down so cash only.  We stated it wasn't an option we were going to use a credit card. As there was only one person working at the entire hotel she finally stated fine I'll call you when it's working again.  We stated we'd rather just pay in the morning as it had been a long day but no she would call us.  She did finally call around 9-9:30p.m we were already in bed so my husband had to get dressed to go down and pay.  The curtains in the room were torn off the rod in the middle so they hung slightly open, the light on the ceiling had no light bulb so there was only 1 small light on each side of the bed to try and read by.  The next morning upon getting in the shower we found out there was soap left in it  with hair on it from the maid and there was only cold water coming out as the shower head was stripped.  We called the front desk but as I was freezing from this experience I had already given up on a shower.  The front desk sent a man to check it and he confirmed it was stripped.  Then about a half hour after the man checked and we were ready to just get out of there the front desk called (too late)  to tell us we could use another room to shower.  The blow dryer was cracked in 2 places and looked dangerous.  Upon checking out the front desk was horrible, but finally offered to give us 10 percent off--what an insult after that experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r6308510-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>6308510</t>
+  </si>
+  <si>
+    <t>11/29/2006</t>
+  </si>
+  <si>
+    <t>Roach Motel</t>
+  </si>
+  <si>
+    <t>Don't stay at this hotel.  Awful area.  Adult book and video stores all around the hotel.  Our room was at the end of the hotel and we looked out to an apartment building with bars on the windows. Cockroachs in the bathroom and as far as breakfast, stale at least 3 day old donuts and coffee. Stay away.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r5936129-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>5936129</t>
+  </si>
+  <si>
+    <t>10/09/2006</t>
+  </si>
+  <si>
+    <t>Cheap (that's about it)</t>
+  </si>
+  <si>
+    <t>I booked this through Hostelworld.com and was expecting it to be AAE LA Hostel and Economy Hotel. It was rather confusing, as it turned out to be an Econo lodge?? but I figured that was probably a bonusThe main reason for choosing it was cause it was dirt cheap ($25 a night for a twin room with breakfast)The location was rubbish, but didn't seem too bad, although I didn't wander out at night. It was fine if you have a car.It felt like it was at the end of the runway, as the planes flew right overhead and Very low. The noise was loud, but I slept ok, although my fiancee didn't, as she is a light sleeperWe had two nights here. The breakfast was really bad. It was just a cup of coffee and a stale donut - not quite what I was expecting. The guy at the desk was really nice and moved us when our non smoking room stank of smoke.Our room was fine once we moved. It was spacious, clean and better than I expected from the run down look of the motel from the outsideIt took about 30 mins to drive to hollywood depending on the time of day. It was very empty, probably cause it's not at all scenic.I don't think i'd stay again, but it is very cheap.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>I booked this through Hostelworld.com and was expecting it to be AAE LA Hostel and Economy Hotel. It was rather confusing, as it turned out to be an Econo lodge?? but I figured that was probably a bonusThe main reason for choosing it was cause it was dirt cheap ($25 a night for a twin room with breakfast)The location was rubbish, but didn't seem too bad, although I didn't wander out at night. It was fine if you have a car.It felt like it was at the end of the runway, as the planes flew right overhead and Very low. The noise was loud, but I slept ok, although my fiancee didn't, as she is a light sleeperWe had two nights here. The breakfast was really bad. It was just a cup of coffee and a stale donut - not quite what I was expecting. The guy at the desk was really nice and moved us when our non smoking room stank of smoke.Our room was fine once we moved. It was spacious, clean and better than I expected from the run down look of the motel from the outsideIt took about 30 mins to drive to hollywood depending on the time of day. It was very empty, probably cause it's not at all scenic.I don't think i'd stay again, but it is very cheap.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r3375747-Motel_6_Inglewood_CA-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>3375747</t>
+  </si>
+  <si>
+    <t>04/18/2005</t>
+  </si>
+  <si>
+    <t>Pure Nightmare Stay</t>
+  </si>
+  <si>
+    <t>The Inglewood Econo Lodge is located a few blocks from where I work and I needed a place to stay overnight to avoid a long drive home for my wife and I. 
+I should have slept in a dumpster. It is the most depressing Hotel I have ever stayed in in my entire life. The room was filthy. the carpet was so stained that I was afraid to take off my shoes. The table and chairs neeed to be replaced. All furniture with a level sueface had cigarette burns from one end to another. The cheap dresser had 2 drawers and each had the borttom kicked out. There was no toilet paper, clean glasses, soap or wash cloth. The smoke decetor had been removed. 
+I had to return to the manager's office twice to get items supplied. The Manager told me there were no clean washcloths and he went into his own room to get one. This place had to be an Opium den or a crack house. It was noisy and smelly.  I requested to have another room and was told the place was full and no other rooms were available. I had booked online through a discount web-site and there was no refund. 
+When my wife arrived after work she read me the riot act for booking this turd of a hotel. I complained to the coporate office and the Los Angeles County Fire Department. I  recieved a...The Inglewood Econo Lodge is located a few blocks from where I work and I needed a place to stay overnight to avoid a long drive home for my wife and I. I should have slept in a dumpster. It is the most depressing Hotel I have ever stayed in in my entire life. The room was filthy. the carpet was so stained that I was afraid to take off my shoes. The table and chairs neeed to be replaced. All furniture with a level sueface had cigarette burns from one end to another. The cheap dresser had 2 drawers and each had the borttom kicked out. There was no toilet paper, clean glasses, soap or wash cloth. The smoke decetor had been removed. I had to return to the manager's office twice to get items supplied. The Manager told me there were no clean washcloths and he went into his own room to get one. This place had to be an Opium den or a crack house. It was noisy and smelly.  I requested to have another room and was told the place was full and no other rooms were available. I had booked online through a discount web-site and there was no refund. When my wife arrived after work she read me the riot act for booking this turd of a hotel. I complained to the coporate office and the Los Angeles County Fire Department. I  recieved a coupon for the value of my stay but I have not been itching to return to any Econo Lodge after this fiasco.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2004</t>
+  </si>
+  <si>
+    <t>The Inglewood Econo Lodge is located a few blocks from where I work and I needed a place to stay overnight to avoid a long drive home for my wife and I. 
+I should have slept in a dumpster. It is the most depressing Hotel I have ever stayed in in my entire life. The room was filthy. the carpet was so stained that I was afraid to take off my shoes. The table and chairs neeed to be replaced. All furniture with a level sueface had cigarette burns from one end to another. The cheap dresser had 2 drawers and each had the borttom kicked out. There was no toilet paper, clean glasses, soap or wash cloth. The smoke decetor had been removed. 
+I had to return to the manager's office twice to get items supplied. The Manager told me there were no clean washcloths and he went into his own room to get one. This place had to be an Opium den or a crack house. It was noisy and smelly.  I requested to have another room and was told the place was full and no other rooms were available. I had booked online through a discount web-site and there was no refund. 
+When my wife arrived after work she read me the riot act for booking this turd of a hotel. I complained to the coporate office and the Los Angeles County Fire Department. I  recieved a...The Inglewood Econo Lodge is located a few blocks from where I work and I needed a place to stay overnight to avoid a long drive home for my wife and I. I should have slept in a dumpster. It is the most depressing Hotel I have ever stayed in in my entire life. The room was filthy. the carpet was so stained that I was afraid to take off my shoes. The table and chairs neeed to be replaced. All furniture with a level sueface had cigarette burns from one end to another. The cheap dresser had 2 drawers and each had the borttom kicked out. There was no toilet paper, clean glasses, soap or wash cloth. The smoke decetor had been removed. I had to return to the manager's office twice to get items supplied. The Manager told me there were no clean washcloths and he went into his own room to get one. This place had to be an Opium den or a crack house. It was noisy and smelly.  I requested to have another room and was told the place was full and no other rooms were available. I had booked online through a discount web-site and there was no refund. When my wife arrived after work she read me the riot act for booking this turd of a hotel. I complained to the coporate office and the Los Angeles County Fire Department. I  recieved a coupon for the value of my stay but I have not been itching to return to any Econo Lodge after this fiasco.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +2028,3942 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" t="s">
+        <v>195</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>213</v>
+      </c>
+      <c r="X21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>222</v>
+      </c>
+      <c r="X22" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>230</v>
+      </c>
+      <c r="X23" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" t="s">
+        <v>195</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>230</v>
+      </c>
+      <c r="X24" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>245</v>
+      </c>
+      <c r="O25" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>230</v>
+      </c>
+      <c r="X25" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>245</v>
+      </c>
+      <c r="O26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>230</v>
+      </c>
+      <c r="X26" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>258</v>
+      </c>
+      <c r="X28" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>195</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>274</v>
+      </c>
+      <c r="X29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" t="s">
+        <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>281</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>274</v>
+      </c>
+      <c r="X30" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>284</v>
+      </c>
+      <c r="J31" t="s">
+        <v>285</v>
+      </c>
+      <c r="K31" t="s">
+        <v>286</v>
+      </c>
+      <c r="L31" t="s">
+        <v>287</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>288</v>
+      </c>
+      <c r="O31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>274</v>
+      </c>
+      <c r="X31" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" t="s">
+        <v>293</v>
+      </c>
+      <c r="L32" t="s">
+        <v>294</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>295</v>
+      </c>
+      <c r="O32" t="s">
+        <v>195</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>296</v>
+      </c>
+      <c r="X32" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>300</v>
+      </c>
+      <c r="J33" t="s">
+        <v>301</v>
+      </c>
+      <c r="K33" t="s">
+        <v>302</v>
+      </c>
+      <c r="L33" t="s">
+        <v>303</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>304</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>274</v>
+      </c>
+      <c r="X33" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>306</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J34" t="s">
+        <v>308</v>
+      </c>
+      <c r="K34" t="s">
+        <v>309</v>
+      </c>
+      <c r="L34" t="s">
+        <v>310</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>312</v>
+      </c>
+      <c r="J35" t="s">
+        <v>313</v>
+      </c>
+      <c r="K35" t="s">
+        <v>314</v>
+      </c>
+      <c r="L35" t="s">
+        <v>315</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" t="s">
+        <v>320</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>321</v>
+      </c>
+      <c r="O36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>324</v>
+      </c>
+      <c r="J37" t="s">
+        <v>325</v>
+      </c>
+      <c r="K37" t="s">
+        <v>326</v>
+      </c>
+      <c r="L37" t="s">
+        <v>327</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>328</v>
+      </c>
+      <c r="O37" t="s">
+        <v>108</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>331</v>
+      </c>
+      <c r="J38" t="s">
+        <v>332</v>
+      </c>
+      <c r="K38" t="s">
+        <v>333</v>
+      </c>
+      <c r="L38" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>335</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>336</v>
+      </c>
+      <c r="X38" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>340</v>
+      </c>
+      <c r="J39" t="s">
+        <v>341</v>
+      </c>
+      <c r="K39" t="s">
+        <v>342</v>
+      </c>
+      <c r="L39" t="s">
+        <v>343</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>344</v>
+      </c>
+      <c r="O39" t="s">
+        <v>108</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>345</v>
+      </c>
+      <c r="X39" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>347</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>348</v>
+      </c>
+      <c r="J40" t="s">
+        <v>349</v>
+      </c>
+      <c r="K40" t="s">
+        <v>350</v>
+      </c>
+      <c r="L40" t="s">
+        <v>351</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>352</v>
+      </c>
+      <c r="O40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>353</v>
+      </c>
+      <c r="X40" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" t="s">
+        <v>357</v>
+      </c>
+      <c r="K41" t="s">
+        <v>358</v>
+      </c>
+      <c r="L41" t="s">
+        <v>359</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>361</v>
+      </c>
+      <c r="J42" t="s">
+        <v>362</v>
+      </c>
+      <c r="K42" t="s">
+        <v>363</v>
+      </c>
+      <c r="L42" t="s">
+        <v>364</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>365</v>
+      </c>
+      <c r="O42" t="s">
+        <v>195</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>367</v>
+      </c>
+      <c r="J43" t="s">
+        <v>368</v>
+      </c>
+      <c r="K43" t="s">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>371</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s">
+        <v>376</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>377</v>
+      </c>
+      <c r="O44" t="s">
+        <v>195</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>378</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>379</v>
+      </c>
+      <c r="J45" t="s">
+        <v>380</v>
+      </c>
+      <c r="K45" t="s">
+        <v>381</v>
+      </c>
+      <c r="L45" t="s">
+        <v>382</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>383</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>384</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>385</v>
+      </c>
+      <c r="J46" t="s">
+        <v>386</v>
+      </c>
+      <c r="K46" t="s">
+        <v>387</v>
+      </c>
+      <c r="L46" t="s">
+        <v>388</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>389</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>391</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>392</v>
+      </c>
+      <c r="J47" t="s">
+        <v>393</v>
+      </c>
+      <c r="K47" t="s">
+        <v>394</v>
+      </c>
+      <c r="L47" t="s">
+        <v>395</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>396</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>397</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>398</v>
+      </c>
+      <c r="J48" t="s">
+        <v>399</v>
+      </c>
+      <c r="K48" t="s">
+        <v>400</v>
+      </c>
+      <c r="L48" t="s">
+        <v>401</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>389</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J49" t="s">
+        <v>404</v>
+      </c>
+      <c r="K49" t="s">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>407</v>
+      </c>
+      <c r="O49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>409</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>410</v>
+      </c>
+      <c r="J50" t="s">
+        <v>411</v>
+      </c>
+      <c r="K50" t="s">
+        <v>412</v>
+      </c>
+      <c r="L50" t="s">
+        <v>413</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>414</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>415</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>416</v>
+      </c>
+      <c r="J51" t="s">
+        <v>417</v>
+      </c>
+      <c r="K51" t="s">
+        <v>418</v>
+      </c>
+      <c r="L51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>420</v>
+      </c>
+      <c r="O51" t="s">
+        <v>195</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>421</v>
+      </c>
+      <c r="X51" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>424</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>425</v>
+      </c>
+      <c r="J52" t="s">
+        <v>426</v>
+      </c>
+      <c r="K52" t="s">
+        <v>427</v>
+      </c>
+      <c r="L52" t="s">
+        <v>428</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>429</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>430</v>
+      </c>
+      <c r="X52" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>433</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>434</v>
+      </c>
+      <c r="J53" t="s">
+        <v>435</v>
+      </c>
+      <c r="K53" t="s">
+        <v>436</v>
+      </c>
+      <c r="L53" t="s">
+        <v>437</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>438</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>439</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>440</v>
+      </c>
+      <c r="J54" t="s">
+        <v>441</v>
+      </c>
+      <c r="K54" t="s">
+        <v>442</v>
+      </c>
+      <c r="L54" t="s">
+        <v>443</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>444</v>
+      </c>
+      <c r="O54" t="s">
+        <v>108</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>445</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>446</v>
+      </c>
+      <c r="J55" t="s">
+        <v>447</v>
+      </c>
+      <c r="K55" t="s">
+        <v>448</v>
+      </c>
+      <c r="L55" t="s">
+        <v>449</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>450</v>
+      </c>
+      <c r="O55" t="s">
+        <v>195</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>452</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>453</v>
+      </c>
+      <c r="J56" t="s">
+        <v>454</v>
+      </c>
+      <c r="K56" t="s">
+        <v>455</v>
+      </c>
+      <c r="L56" t="s">
+        <v>456</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>457</v>
+      </c>
+      <c r="O56" t="s">
+        <v>108</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>459</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>460</v>
+      </c>
+      <c r="J57" t="s">
+        <v>461</v>
+      </c>
+      <c r="K57" t="s">
+        <v>462</v>
+      </c>
+      <c r="L57" t="s">
+        <v>463</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>464</v>
+      </c>
+      <c r="O57" t="s">
+        <v>108</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>466</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>467</v>
+      </c>
+      <c r="J58" t="s">
+        <v>468</v>
+      </c>
+      <c r="K58" t="s">
+        <v>469</v>
+      </c>
+      <c r="L58" t="s">
+        <v>470</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>471</v>
+      </c>
+      <c r="O58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>473</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>474</v>
+      </c>
+      <c r="J59" t="s">
+        <v>475</v>
+      </c>
+      <c r="K59" t="s">
+        <v>476</v>
+      </c>
+      <c r="L59" t="s">
+        <v>477</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>478</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>479</v>
+      </c>
+      <c r="J60" t="s">
+        <v>480</v>
+      </c>
+      <c r="K60" t="s">
+        <v>481</v>
+      </c>
+      <c r="L60" t="s">
+        <v>482</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>483</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>17541</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>485</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>486</v>
+      </c>
+      <c r="J61" t="s">
+        <v>487</v>
+      </c>
+      <c r="K61" t="s">
+        <v>488</v>
+      </c>
+      <c r="L61" t="s">
+        <v>489</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>490</v>
+      </c>
+      <c r="O61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>491</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_442.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_442.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="552">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Érika C</t>
+  </si>
+  <si>
     <t>07/05/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Good:Very cheap. Breakfast included. Near the airport.Bad:- Looks  really dangerousThere were bullet holes in the wall near the elevator. Also, when we were going out, very early in the morning, the reception was empty and there was a homeless guy in front of the office. - Very far from LA tourist spots (money you can save it will expand on transportation)-The room and toilet were not properly cleaned.-The breakfast is only bread, jam and coffe (black- no milk)More</t>
   </si>
   <si>
+    <t>VanessaL974</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r457987419-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Snoop dog wanna be was in the parking lot when we parked.  The hotel was shadey and looked like a dive!  They lost our reservation so we ended up not staying there.  There was bullet proof glass in the lobby- speaks more than words!More</t>
   </si>
   <si>
+    <t>JillpainterMoyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r450478409-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>After staying at a luxury resort we decided to save a few dollars for a night at the airport. Arriving at this hotel we thought perhaps we made a mistake.  However, the grounds were beautiful with all kinds of flowers and vegetation and fountains. We found out this was the original hotel built near the airport in the '30,s and added on to in the 50's. There is a junior size olympic pool.  In the past this hotel was host to many celebrities.  We felt this was much more fun than staying at a Hilton. The bed was great, it was quite (no loud all night wedding parties as we have experience in upscale hotels in cities).More</t>
   </si>
   <si>
+    <t>Nicholas S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r426541368-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>We spent very little time at the hotel but it serves it's purpose well. It's nothing special but the beds are pretty comfortable and it was pretty clean. Strange area of town, lots of fried chicken so that's cool. Only 20 minutes from Santa Monica and Venice beach. More</t>
   </si>
   <si>
+    <t>Rita N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r425376562-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>We should of paid a little bit more and stay in different place.AC is vert loud I think it is very old  and not working properly .You can hear everything from outside and it is busy road.In the breakfast area not even a chair,I am not talking about TABLE!!!!More</t>
   </si>
   <si>
+    <t>WanderlustSydney123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r403168022-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Do not stay here. It's in a horrible sketchy location of Inglewood. There were photos advertised of what the rooms look like and it was not correct. The rooms are out dated and run down. The air conditioner did not work, it was about 100 degrees in our room. There is a crack under the door so any bug can get in. The beds are not comfortable. There is hardly any parking and it is not safe. I would recommend spending the extra money and getting a better hotel in a safer area.More</t>
   </si>
   <si>
+    <t>David D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r397685343-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>The room was very satisfactory, Wi-Fi is available, and you do have cable and a refrigerator in room. They also offer a continental breakfast. It's not in the most desirable area, but it serves the purpose and is reasonable for the area.More</t>
   </si>
   <si>
+    <t>Maribel Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r397123074-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>I needed somewhere else to stay at a last minute so i found econo lodge in Inglewood since i was visiting Hawthorne that day my family's home was full for grandmothers bday so my husband and i I decided to stay out for the night ☺. Thanks to the front desk Ricardo everything was really accommodated.More</t>
   </si>
   <si>
+    <t>Jennifer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r397094014-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -390,6 +417,9 @@
     <t>Average accommodation but the price is right. The continental breakfast is average. If you need a nutritious breakfast you are close to restaurants, walking distance. The rooms are clean and spacious. If you want a place to sleep without breaking the bank, this place will work for you. More</t>
   </si>
   <si>
+    <t>Emon_123_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r395281588-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>By seeing the review we booked this hotel. But it did nt match well what I read. The room was clean. But curtain was teared off. There was no microwave or complementary minimum stuff which I saw in Rodway inn or Super8. Breakfast had almost nothing Few packaged buns and stuffs. No egg, cereal or pancake or yogurt. Almost nothing apart from bread stuff and coffee/juice. Sometimes at front desk you wil not find anyone. Altogether I did not feel it is even worth to pay 110 bucks for this hotel.More</t>
   </si>
   <si>
+    <t>296Robert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r386686815-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -441,6 +474,9 @@
     <t>I stayed at the Econo Lodge LAX. from June 19th until June 23rd.It was convenient and it was a good value for the money.The room was clean and the bed was comfortable and the sheets were clean.I would stay there again.More</t>
   </si>
   <si>
+    <t>Dana H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r374947654-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -465,6 +501,9 @@
     <t>For a budget hotel near the airport it was good. Good location, service and the room was clean. It's an older hotel in a neighborhood that may not interest everyone but if you are visiting LA on a budget I recommend staying there.More</t>
   </si>
   <si>
+    <t>Liuba M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r352666271-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -492,6 +531,9 @@
     <t>Very pleasant staff, fast and easy check in. We have stayed in a several budget hotels in LA and this hotel was the best. It's nice and clean. In other hotels we experienced problems with water pressure in the shower and temperature changes, but nothing of this kind in Econo Lodge. The parking was free. Location is also great, very close to the LAX. We really enjoyed our stay. I greatly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Luoshi2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r341836861-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -519,6 +561,9 @@
     <t>This is a budget hotel, nothing fancy  but it offers everything that travelers need, big bed, huge bathroom bench, spacious room, fridge etc. a microwave in room would make more convenient however the host offered us a microwave in the breakfast room Soi have got no complaint. Very close to airport, great for those who need to go to airport the next day as you could avoid the traffic during the day that might jeopardise your flights.Good value for what we paid.More</t>
   </si>
   <si>
+    <t>Pierre C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r337286082-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -540,6 +585,9 @@
     <t>Clean room, pleasant staff, which was helpful when we needed a room in emergency, at an affordale price. A bit noisy because of the airport, but it can be practical to be close to. Breakfast quite varied.More</t>
   </si>
   <si>
+    <t>flor t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r334464618-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -558,6 +606,9 @@
     <t>My boyfriend and I just landed from San Jose and didn't know where to stay. This was the closest and affordable hotel for both of us. We enjoyed out stay there it was comfortable and clean. The staff was very helpful and made my stay very enjoyable.More</t>
   </si>
   <si>
+    <t>demaileron</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r329058103-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -585,6 +636,9 @@
     <t>This place is slightly better than sleeping on LAX Terminal floor. Just barely. I had a newer renovated room, it was approaching decent. I've stayed in worse places. But not many. Decent location, quite the lively neighborhood. Their free breakfast is even fit for cockroaches. Use as last resort or spring for $20-$25 more to stay at the Holiday Inn Express. That'll make you smarter!More</t>
   </si>
   <si>
+    <t>Freespirit1113</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r327911763-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -615,6 +669,9 @@
     <t>Checked in around 9 the recipient was a very nice women asked for a cart to get my bags and she came out to help...also told me where I can get good food this late... she  was awesome I was very tired and had a bad flight she made my night plesent More</t>
   </si>
   <si>
+    <t>villicana00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r316887254-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -642,6 +699,9 @@
     <t>I've been going to this hotel for a while now I have never had an issue with anything. The staff there is very friendly, the rooms are always clean, and the prices are reasonable. Needless to say I am in the military are they are military friendly and thats hard to find now in days. I most definitely know I can always count on this place.  More</t>
   </si>
   <si>
+    <t>zahra v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r316751378-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -666,6 +726,9 @@
     <t>I have stayed here many times and have never had an issue. Reasonable prices, great rooms, and very friendly service. As soon as I walked in the staff acknowledged me and was very helpful. The rooms are very clean and spacious. By far my favorite place to stay at. The location is surrounded by many places to eat and shop. Will always come back to this place.More</t>
   </si>
   <si>
+    <t>2sawn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r312897970-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -693,6 +756,9 @@
     <t>front desk person was rude and didn't acknowledge me as a frequent Choice Privileges rewards client. Instead, I immediately had to sign several documents about fines involved if the room is trashed, etc. It shows you what kind of clientele they have. it is an airport hotel, but any shuttle transportation to the airport costs extra. The room was not so clean, but roomy. The area around the hotel is not so great. In Inglewood, just a few blocks can make a difference on who is hanging out in front of the hotel (there are several hotels on Century Blvd near LAX).  If you are on a tight budget, the Rodeway Inn just a few blocks further from LAX down Century Blvd is much nicer and usually quite similar in price.More</t>
   </si>
   <si>
+    <t>SuzyQ12345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r292504505-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -717,6 +783,9 @@
     <t>We got into LAX after a few delays and took these rooms. This motel was dirty and very musty smelling. I had trouble going to sleep because the smell was overpowering. There was no place to park and the management was very unhelpful - just kept telling us to park on the street. More</t>
   </si>
   <si>
+    <t>Queeny L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r286041531-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -738,6 +807,9 @@
     <t>Way overpriced for a dingy place to stay!Towels were hard, brown and stained (suppose to be white), mildew around tub.Good thing I always bring my own towel!I did not want to touch anything in the room or bathroom. The toilet was dirty, had stool stained inside, basin was rust. Rm 317. We check in at 2330 and was tired but we were out by 0830.Sheets were so old n thin good thing I had a blanket to lay on top. Does not even deserve a star! The Four points was our Rescue!More</t>
   </si>
   <si>
+    <t>Andrea S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r285664410-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -759,6 +831,9 @@
     <t>Booked an overnight stay, parking for the weekend &amp; free shuttle service to LAX.  When we arrived we were told they no longer offered shuttle service &amp; we were on our own for transportation.No light bulb in the lamp by the bed, tv did not work, went to call front desk &amp; the phone did not work.Asked for an adjustment to our bill &amp; was told to speak to the manager however he was not in when we checked in or checked out.  Asked  for a telephone call &amp; of course never received one.More</t>
   </si>
   <si>
+    <t>Natalia S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r280936947-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -777,6 +852,9 @@
     <t>Upon check-in not only did we have to pay our full bill we had to put down a deposit. We were told we get that back upon check-out. We arrived around 10pm and standing in the lobby was a homeless man . Very uncomfortable when trying to check in. There were stains on the towels and they are beyond small. The bed is extremely springy. The room size was a decent size, with only about 10 channels to watch on their tv. The only positive so far is I am at work for most of the day. I would not recommend this to anyone and I will definitely not be coming back.More</t>
   </si>
   <si>
+    <t>wgossin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r243010840-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -801,6 +879,9 @@
     <t>I've stayed in many hotels all over the world, but this was, by far, one of the nicest ever. Clean, soft water, convenience, beautiful garden surroundings, so well maintained.  Great bedding. Dog friendly. Can't say enough about this wonderful little gem near LAX.More</t>
   </si>
   <si>
+    <t>ritatravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r240968092-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -822,6 +903,9 @@
     <t>This was the first hotel in CA where the office had a bullet-proof window between me and the hotel clerk.  The area is not the best, and I wondered if our car would be there the next morning. I noticed other hotels with a gate at their parking lot.  Having said that, once we were in our room, no problems.  Room was clean, spacious. I'll second the person who said the towels were ex-foliators. But we were only there for one night before an early morning flight, so I would stay again. They do offer a basic Complimentary Breakfast with cereal, pastries, coffee and OJ,  but there is nowhere to sit in the breakfast room....there was room for  a small table with 4 chairs, so we just stood and ate our cereal. We did walk the area at night with no problems...walked to "Mona's Restaurant" for dinner and then walked to Subway the next morning to pick up subs for lunch during our flight-much less expensive than the sandwiches at the airport.More</t>
   </si>
   <si>
+    <t>Leah J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r218045024-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -849,6 +933,9 @@
     <t>A review from a normal, well traveled easy to please 20 something: The hotel was on a street with lots of traffic noise and airplane fly overs so I wouldn't recommend it to those who have trouble sleeping. A pillow over my head and ear plugs worked pretty well but it wasn't a great night sleep overall. The room was nicer than expected and very clean. The beds were comfy. Not a sketchy place for the price. Breakfast was just standing room with machine made juice and coffee and bagels. There were a couple cereal choices and some packaged pastries. Better than nothing, but not continental. Bring your own fruits, veggies and tea. If you are looking for a nice, inexpensive place to crash for a night near LAX than I recommend this place.More</t>
   </si>
   <si>
+    <t>Raghunath K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r216713138-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -867,6 +954,9 @@
     <t>- For just under 95 bucks this is the best economy hotel we stayed for. - Room was clean and restroom tidy as well. They did change towels the next morning, something that other budget hotels miss to do. - The surrounding area is bit scary though (cop sirens and strange behavior), but plan to leave this place in the morning and come back for a night's sleep and you will feel better. Don't plan to take a walk or stand in the ground floor outside in the evening or night- Parking is little tight in terms of maneuvering but it has space for SUVs and Vans, and 2 to 3 spots open all the time- Snack and Grab 'n' go food is available in vending machine- Beverage and Ice vending machines are also available- 7 eleven, CVS, Starbucks, Panda Express and other food joints are just half a mile near by on either side of this lodge- If you are looking for a budget hotel for a short stay and if you can make out rest of the things, this is the place !!!!!! More</t>
   </si>
   <si>
+    <t>suresh g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r212722844-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -888,6 +978,9 @@
     <t>We made a short trip to visit LA, The room was wonderful, spacious bathroom. facilities in room &amp; bathroom were excellent.it is good and safe. Staff were courteous., I prefer to stay in future visits.More</t>
   </si>
   <si>
+    <t>MexiJohn2369</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r209894643-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -915,6 +1008,9 @@
     <t>This is an older hotel but they have done a good job in remodeling their rooms. We have used this hotel for park and fly twice. Decent price and your car can stay for a week free. Then $5 a day after that. Easy access from the 405 freeway and they provide transit to LAX and back. We have used other hotels in the area from the Hilton down. The room was actually as nice as the one at the Hilton, if not better, because the room at the Hilton was getting rather run down with stained carpet and frayed edges. The Hilton may have an impressive lobby but we just need a decent place to lay our heads till our flight the next day. The Econo Lodge provides that for a lot less money.The only reason I gave it a 4 is because it is in an older neighborhood, otherwise a 5.More</t>
   </si>
   <si>
+    <t>K W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r208552502-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -936,6 +1032,9 @@
     <t>An very affordable place to stay compared to the other hotels in the same area. Rooms were clean and relatively quiet, being in close proximity to the airport. I will most likely stay here again if I am in the area.More</t>
   </si>
   <si>
+    <t>Edman8908</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r205844278-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -951,6 +1050,9 @@
     <t xml:space="preserve">I was a bit skeptical because of the location but the price and great customer service made up for it. Upon arrival I was greeted and received with a smile from the front desk I believe Ms.Vivian was her name. I would definitely stay here again. </t>
   </si>
   <si>
+    <t>Muskrat40r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r195252008-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -964,6 +1066,9 @@
   </si>
   <si>
     <t>Room clean, with fridge. TV channels lacking. Stay was made unpleasant by neighbours (noisy, loud, inconsiderate). No complaint with hotel or staff. Good value for money (if you have quiet, considerate neighbours).</t>
+  </si>
+  <si>
+    <t>MikeATL</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r190415815-Motel_6_Inglewood_CA-Inglewood_California.html</t>
@@ -997,6 +1102,9 @@
        I was concerned the small lot would fill up if I left later for dinner but the lady at the desk...This is a noisy hotel. The next building is arms length away and has dogs that bark continually if the owner is not home, I presume, because it can go on for hours and hours and then stops.  There is also airplane noise which I expected, but the street noise even in back comes right through.      Main complaint is the internet didn't work AT ALL!!! I don't carry a smart phone so to me having a hotel with internet you can actually use is SO important.  The guy at lobby window did let me sit in the side room to use internet which was nice but having it when you need it and in your room is worth paying extra for elsewhere.     I spent a lot of time at McDonalds after that so I could use internet.     The hotel seems to harbor mostly longer term  boarders.  Marijuana smoke drifted out of the room nearest mine. I never once saw anyone come or go that looked like a regular traveler-yet im sure they have some.  I just didn't see one.      I found the bed to be fine for this price range hotel. The room was large. A waste basket in the bathroom or area of sink though would be helpful. The only one is at the entry to the room.       I was concerned the small lot would fill up if I left later for dinner but the lady at the desk said don't worry!  She was right.  It does have free parking.  Some hotels charge! They have a service that stops by for the airport at $10, but I had a car.        There is no elevator. You carry your bags up steps.  42 steps up to my floor....yea I counted them  4 x 8 and then a 10!  Some people with health issues or of advanced years could have real trouble here.          Some peoples reviews here said unsafe.  I didn't see anyone lurking though that looked like a danger inside the hotel property.  The area is heavily Mexican/Salvadoran so you have some good eating options out there too for those willing to go beyond the average American comfort zone.  Some of the taco trucks on Inglewood Blvd are highly rated on here and they had quite a crowd. I didn't try them as it was cold, and dark, but next time Im going to the trucks!         I don't know if they put out breakfast or not.  Usually they tell you something on checkin as to hours and location. He said nothing, but I later  saw a set up when I used the internet there. So maybe they do. However with no internet I was off to McD to eat where I could use internet.          The manager told me they were working on their internet, ETHOSTREAM to get it working right then...but nothing ever changed.  Still didn't work the next day either.More</t>
   </si>
   <si>
+    <t>BelziBhaal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r187753995-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1018,6 +1126,9 @@
     <t>I stayed here in late October this year for a single night on layover after arriving from Australia.The room was very clean, quiet and the bed was very comfortable. However, the room light was motion activated, it seems and would randomly turn on during the night and wake me up.The staff were wonderfully accommodating, even allowing me to check in at around 9 am. The taxi fare from LAX to the airport is around $20 from the airport and $15 to the airport.The hotel has free wifi, which was sadly horrible. Would drop out constantly and the speeds were just as bad. I literally had faster internet speeds in Australia back in 2000. I would suggest that they invest in some better wifi repeater hardware. If the hotel management wants to reach out to me, I could suggest some alternatives.The breakfast was quite spartan, with danishes and coffee with some sort of whitening powder. We don't have "creamer" in Australia, so I found it quite terrible. For the love of god guys, please supply real milk for the coffee.On the flip side, there are several places where you can get decent takeaway food for dinner, as well as a Target a few blocks past the casino, as well as many other stores for whatever you need in the immediate vicinity.Overall, I was quite happy with my stay and would certainly stay there again.More</t>
   </si>
   <si>
+    <t>Romulus P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r163161070-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1043,6 +1154,9 @@
   </si>
   <si>
     <t>We had a flight in the morning and decided we should stay as close to the airport as we can get within choice hotels options. The breakfast, indeed as the previous reviewer called, spartan, was quick and coffee was the finest addition. We used their printer and staff was helpful.More</t>
+  </si>
+  <si>
+    <t>Efrin_Knight</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r162168688-Motel_6_Inglewood_CA-Inglewood_California.html</t>
@@ -1083,6 +1197,9 @@
 If everybody refused to accept this...I) HONEST CANCELLATION POLICY (a/o May 18, 2013...)Originally, I wanted to stay at the Comfort Suites or at the Best Western Suites, which are closer from the airport and have a free shuttle.  This would have given me an extra stay at either of my loyalty programs for the 2014 qualification.Unfortunately, both of them have a very dishonest cancellation policy because they want you to cancel 24 hours before the arrival day, or you lose your money!Dishonest, indeed, because every time that one of my flights has been cancelled (which happens more and more often nowadays!) it has never happened one day before, but always at the very last minute!Unfortunately, more and more hotels are now adopting this utterly dishonest cancellation policy of one day (and even more in some places!) before the arrival date.They get away with it simply because people accept it, until their flight is cancelled at the last minute; they lose their money and learn the hard way that they should never accept such a lion to monkey deal!  A few years ago, as I was checking in a hotel in San Luis Obispo (California), I witnessed a phone conversation between the hotel manager and an unfortunate passenger to whom this had just happened, and I heard the manager say that it was not the hotel's fault and that he couldn't do anything about it!If everybody refused to accept this horrendous policy, as I always do systematically, those merchants would have to return to an HONEST DAY OF ARRIVAL CANCELLATION POLICY as at this Econo Lodge (BUT WARNING: only 4 pm the day of arrival, and not 6 or even 7 pm, as in Ibis or Best Western hotels in Europe!) or go out of business!As a matter of fact, I am currently holding several reservations for Ibis hotels in Madrid (Spain), Salzburg and Vienna (in Austria, of course!) for June 2013 on a "courtesy hold basis", without giving any credit card number, the way it used to be just a few years ago!II) GOOD VALUE AT $49.46 + taxROOM 321, that I got on Friday, May 18, 2013, for $49.46 plus tax including a small, Spartan breakfast, is an ordinary Econo Lodge one: half the size of room 735 at the Sheraton Four Points LAX and twice as big as my usual room at the "Lux Hotel" in Paris, where I pay twice as much without breakfast, but where I keep returning simply because it's the best value for money in Paris!This Econo room 321 has a Queen bed with one nice big side table (three times as big as the ones I have in Paris) on each side.  It also has a nice round table with two (not very soft...) assorted club chairs that you will never find in France or England at less than $200 a night!, another assorted furniture with three drawers and an old style TV with front Composite connectors.  There is also a folding luggage rack (nothing in common with the fancy wood luggage rack of the "Florida Norte Hotel" in Madrid, for which I posted a review already in TA) and plenty of space left to do your morning exercises, as it was the case in Madrid, but not in Paris!This room 321 didn't have a refrigerator, but since my reservation said "queen room with refrigerator", I complained at the front desk and the night clerk brought it when I returned from the airport at 7 pm.It would be a euphemism to say that the BATHTUB could suffer a deep cleaning...  In fact, it is black and white, like the one of the apartment that I rent in Miami Beach was when I moved in ten years ago.  However, after I scrubbed it two or three days a week and poured a couple of bottles of Clorox in it during several weeks, it eventually became white again.  The same medicine would produce the same result on this BW tub...  In the meantime, you may just keep your rubber beach slippers to get into it, holding the hand rail so that you don't slip.We are here at the antipodes of the coconut white tub I had in room 353 at the Best Western "Hôtel de France" in Bourg-en-Bresse (France), for which I posted a review during my last trip there in June 2012: the best value for money in this famous gastronomic French little town, where I will return next month to celebrate my seventieth birthday with a good meal, hoping that they will give me the same room that I had last June.When I returned the following week to this Econo Lodge LAX, I got room 307, which is much better because it is bigger, with a king bed, and has a HUUUGE BATHROOM.  The biggest bathroom I've ever seen anywhere, including the double bathroom of my favorite suite at the Sheraton Four Points in Montevideo, where you have a Jacuzzi in one side and a big shower in the other.  Well, this bath is even bigger, although without the Jacuzzi, naturally, and with another BLACK AND WHITE TUB...Also, room 307 has a wide open view towards the West (LAX) because it is higher than all other buildings in the area.BUT CAUTION: room 306, right next door, has a wall in front of the window!III) FAIRLY GOOD LOCATIONThis place is on CENTURY Boulevard between LA BREA &amp; PRAIRIE.Although it is farther from the airport than the Comfort Suites as I said, it still has a good location.  It is true that it would be a euphemism to say that it's NOT a fancy neighborhood...A FREE PUBLIC SHUTTLE will take you from the airport (all terminals) TO LAX BUS TERMINAL, where you can TAKE BUS 117 that will drop you virtually at the door; all you have to do then is cross Century Boulevard.  Get off at the first stop right after La Brea/Hawthorne Boulevards (Century divides both of them and you'll see a CVS at the corner of La Brea &amp; Century).  If you are a senior, you will only pay 25 cents to get there and 25 more to return to the airport.To go back to LAX, 117 stops a few yards from the door of this Econo Lodge and will put you into the bus terminal in about fifteen minutes, where you take the FREE PUBLIC SHUTTLE "C" to all airport terminals.  Another ten or fifteen minutes and you are having your porn picture taken at the airport Security; unless you prefer to have a "love padding", or unless you are a "TSA Pre Screened", in which case you will avoid both... That's what I did myself, because I preferred to pay 25 cents (as a senior, between 9 am and 3 pm and after 7 pm, and all day on weekends and holidays) rather than paying "mucho money" ($10 per trip!) for the private shuttle proposed by this Econo Lodge in their website.On my first trip there, after I dropped my luggage in the room, I walked back to the bus terminal and took the shuttle to the airport, in order to get my boarding card for the next day.  I returned the same way, just for the pleasure of the exercise.  But it is true that I am already 69 years young.  Many of my young FIU students could hardly follow...This only took me a couple of hours each way, with a technical stopover to drink (and undrink) at a McDonald’s in front of the Holiday Inn, about half way, in each direction.SEVERAL EATERIES open their doors, either on La Brea (where there is a CVS), or on Prairie, all within a walking distance.Jack in the Box is only half a block away, towards Prairie, and you will find a McDonald’s, a Church’s and a Taco Bell fast food eateries less than two blocks from this Econo Lodge, at the corner of Century and Prairie.There is also what seems to be a real restaurant right at the corner, on the other side of the street, at a cheap, all suites hotel called "Los Angeles Adventurer" (4200 W Century), where I would like to go but where I have never been because they also have a dishonest cancellation policy of one day before the day of arrival.  Without that policy, I would have certainly tried that suite hotel already. And if you take bus 117 towards the east, you will see a big shopping complex on both sides of Century, around the 3400s.  That’s around the corner…Unless you prefer to walk, as I did on Memorial Day and, as I was entering the complex twenty minutes later, the bus was still a couple of blocks away.In this big shopping, you will see a HUUUGE BUFFET in a place called “Royal Buffet” for which I also posted a review here.IN SHORT, this Econo Lodge is very far from fancier places BUT it is CHEAP and fairly well maintained.  Except for the black and white tub (which could become all white after falling on four legs and scrubbing, scrubbing, scrubbing with lots and lots of Clorox...) I have no complaints about the rest.EXCEPT that, unlike Motel 6 or the Sheraton Four Points, it has a BAD NOISE INSULATION.  This means that it is NOISY DAY AND NIGHT, and you will hear all sorts of noises, from birds singing at 4 am to people TALKING and WALKING on the hall outside the room or going down the stairs (right next to room 321), to ambulances blowing their SIRENS 24 hours a day, and PLANES landing or taking off.  Here, also, we are at the antipodes of the IBIS LHR (London Heathrow airport), where I didn't hear the slightest noise from planes landing one block away from my window.  If you are going to London, you may want to read my review, posted here in March 2013.WARNING!  As I have already noticed in several hotels in California, there are ROOMS WITH A WALL 5 feet from the window, as I wrote already!!!  I therefore suggest that you SEE the room BEFORE checking in and opening your skinny wallet.  Skinny wallet, indeed, because if it was fat..., you wouldn't be reading this review!More</t>
   </si>
   <si>
+    <t>Anton P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r155466987-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1107,6 +1224,9 @@
     <t>I just needed to stay the night, my flight was getting in at 11 PM and I needed to leave early in the morning anyways, so I wasn't particularly picky about what I booked, so I just went for the cheapest thing available. But for the money ($55 with tax), I have seen better hotels. I know the area is expensive, but this Econo Lodge was below-par in my book - the location is rather "sketchy", I didn't feel safe (the hallways, parking area are poorly lit). The building itself is rather old and run down, the rooms were clean, however the TV was extremely old and the bed wasn't all too comfortable. In the morning I went to get breakfast, all they had were bananas, apples, something like hot pockets, and coffee. Not a very filling breakfast. Anyways, bottom line: not thrilled, but it got me through the night.More</t>
   </si>
   <si>
+    <t>Mrs Valerie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r140588354-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1122,6 +1242,9 @@
     <t>Well, the room was okay nothing spectacular. I reserved two beds and only got one.The brighter side is that the Hotel is close to food and shopping, and me and my family was able to attend a cool carnival at the Hollywood Park. The only thing that bothered me the most was that the hotel receptionist kept calling my room 30 minutes before check out. Give me a break CHECKOUT IS NOT TIL 12pm....</t>
   </si>
   <si>
+    <t>TheNotoriousT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r140236104-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1140,6 +1263,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>ferfeito</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r138588488-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1158,6 +1284,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Richard G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r129991566-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1176,6 +1305,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Zahid A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r126020136-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1194,6 +1326,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>yeshua4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r123090524-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1215,6 +1350,9 @@
     <t>When I came back from my trip to find my car was broken into (back window was broken out), my stereo was torn out, my ipod was gone, my battery was dead and my car was in shambles, I knew it was the risk of parking in the area.  I assumed that since I paid for the parking and paid for the shuttle that there would be at least a little liability on the part of the hotel.  After leaving seven messages with the manager, and contacting customer relations multiple times, I have not gotten a single call.  DO NOT STAY HERE!  At the very least I would expect my stay to be comped, but not even that, let a lone a return call.More</t>
   </si>
   <si>
+    <t>SummerWind5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r121781582-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1233,6 +1371,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>ralphVermont</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r117843993-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1248,6 +1389,9 @@
     <t>About the best I can say for this place is that is has a roof and beds.  It's a LONNNG G way from LAX.  It's dirty, staff is unfriendly, "breakfast" is shabby, beds are uncomfortable, barking dogs would have kept us up had we not been so travel weary.   We waited for 45 mins for the airport shuttle, then finally gave up and took a $20 cab ride.  This place makes sleeping under a bridge seem like a favorable option.</t>
   </si>
   <si>
+    <t>Gymfly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r111795946-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1269,6 +1413,9 @@
     <t>I have spent my life travelling for work so I have stayed in many different classes of hotel. I do not require much since for the most part I just sleep in the room.For this trip I was going to be in the room for only 6 hours so I looked for the least expensive hotel near LAX that met all of my needs (No smoking room, close to LAX, free parking, internet access, breakfast, clean and safe).This was such a dissapointment! The room was musty and dirty with poorly lit hallways. My first warning was when I went to check in and the front desk clerk was behind security glass (like in the bank)!Never again. Stained ceilings, dirty phone and remote, spiders, broken lock on room door. I took pictures to post in my office to warn coworkers to stay away from this place. This is the only hotel that I have ever slept in my bed fully clothed with all of the lights on!Oh, BTW, that breakfast that they advertized.......a pot of coffee and a box of 6 donuts in the lobby!More</t>
   </si>
   <si>
+    <t>HunterMinnesota</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r68102244-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1287,6 +1434,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>Boriski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r56520095-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1314,6 +1464,9 @@
     <t>Arrived late into LA and needed a place to stay for one night, prior to moving closer into town the next day. My friend booked this online. I checked out their website and they advised they had a shuttle service. On arrival at LAX we found the red shuttle bus service. They gave us a '"free" card for our shuttle bus to this place. They then made us wait for three and a bit hours. When we finally got dropped off last (we were two females), the shuttle driver went into reception and handed a card to the guy on the counter who gave him money. The reception guy asked us to pre-pay for the room, but added an extra $15US onto the price - for the 'shuttle'. I showed him the card we were give by the shuttle driver and he basically said bad luck. This was clearly a con and there was not much we could do about it as it was 2.30am by this time and we were desperate for some sleep. We went up to the room and found it was a double not a twin as requested. A guard dog in a panel shop across the road barked all night. The towels were threadbare, a towel rack in the bathroom was hanging out of the wall and the room stunk. On waking the next morning, we walked up the street to Maccas for breakfast and...Arrived late into LA and needed a place to stay for one night, prior to moving closer into town the next day. My friend booked this online. I checked out their website and they advised they had a shuttle service. On arrival at LAX we found the red shuttle bus service. They gave us a '"free" card for our shuttle bus to this place. They then made us wait for three and a bit hours. When we finally got dropped off last (we were two females), the shuttle driver went into reception and handed a card to the guy on the counter who gave him money. The reception guy asked us to pre-pay for the room, but added an extra $15US onto the price - for the 'shuttle'. I showed him the card we were give by the shuttle driver and he basically said bad luck. This was clearly a con and there was not much we could do about it as it was 2.30am by this time and we were desperate for some sleep. We went up to the room and found it was a double not a twin as requested. A guard dog in a panel shop across the road barked all night. The towels were threadbare, a towel rack in the bathroom was hanging out of the wall and the room stunk. On waking the next morning, we walked up the street to Maccas for breakfast and discovered we were possibly in the most seediest part of LA. The hotel is surrounded by smallish panel repair shops and run down houses. If you're looking for a lower cost place near the airport, I'd suggest you look elsewhere.More</t>
   </si>
   <si>
+    <t>eyeaday</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r19256121-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1341,6 +1494,9 @@
     <t>This hotel was nothing like how it was portrayed in their website.  Being part of ChoiceHotels I expected it to be a nice hotel, maybe not as nice as a Comfort Inn since it's a little less expensive, but at least somewhat decent.  It was a total disappointment.First of all, I was charged more for the room than what was posted on the website.  When I arrived at the hotel they downgraded me to a one-bed room but still charged me for the two-bed room that I reserved.  When I got to the room it was dirty and there was nothing about it worth paying $100 a night for.  The refrigerator smelled and leaked and didn't really get cold.  The cable didn't work on the tv and there were holes in the walls.  Had I payed half of what I did, this wouldn't have been as big of a deal since it was at least close to the airport.  Still, it was a rip-off and I wouldn't recommend it to anyone.  Because of this experience, I wouldn't even consider staying at any of the Choice Hotels.  I'm sure there are other hotels out there that don't charge as much and offer much better amenities than this one.  Please, don't waste your money!More</t>
   </si>
   <si>
+    <t>martinradka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r15825422-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1359,6 +1515,9 @@
     <t>March 2008</t>
   </si>
   <si>
+    <t>vargas37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r15091389-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1377,6 +1536,9 @@
     <t>July 2006</t>
   </si>
   <si>
+    <t>R0ne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r14706049-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1398,6 +1560,9 @@
     <t>OMG where to start! Just by reading the other reviews im glad that i am not alone in thinking this place is the worst! The hotel stated that they would pick myself and other companions at the LA airport. It took us forever to actually get through to them and by the time they eventually came to pick us up nearly an hour had passed. The lobby and stairway was disgusting, not to mention our rooms. It is in the worst neighborhood and on of our rooms was broken into and passports stolen! They gave us no help towards travel to and from the hostel and to eventually get back to the airport we had to arrive 2 hours earlier then we were meant to as the shuttle had overbooked and otherwise we would miss our flight! worst two nights ever!!More</t>
   </si>
   <si>
+    <t>canadiangal777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r12911342-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1417,6 +1582,9 @@
   </si>
   <si>
     <t>The lobby was under construction but no big deal while I was there. Although my room was supposedly non-smoking it stunk. The TV was very fuzzy but the real concern I had was the door locks were close to falling off the hinges. It looked like someone had tried to break in before. I was right above the lobby so probably fairly safe but it was a tad disconcerting. Also the room had not been cleaned properly. I found evidence of previous tenants. I asked to get a room furthur back, (away from the street), but was informed that they were all two bedrooms. I doubt the accuracy of that statement. There was a small frig in the room but I turned it off as it was so loud. (Admittedly I am a light sleeper). One of the light bulbs in the room was burnt out. Well, the price was right! And there was a free copy of USA today and the manager told me about a good place for breakfast in walking distance.More</t>
+  </si>
+  <si>
+    <t>Darwinista</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r10800754-Motel_6_Inglewood_CA-Inglewood_California.html</t>
@@ -1446,6 +1614,9 @@
 4. The entrance to the hotel was depressing, but when I came to my room, it was even worse. Towels were clean but broken and very used, the same with the coverage of bed, the restroom was full of insects, the W.C...1. The girl in reception office didn't look at my face in any moment, making me feel I was going to a prison, but not a hotel.2. She demonstrated me she didn't know how to treat the people because she didn't say at least "I'm sorry" when I had to come back to the office because the key didn't open the door of my room. Without looking at my faces, she only made a new card-key and gave me without any word.3. She didn't told me a right information when I asked her about the internet: she told me to connect at my computer the telephone cable and no more. So I had to ask her about an user and a password. Then she told me the right answer. But when I was in my room, I realised that she should give me the telephone number I have to call to use the telephone cable. Fortunately, my computer detected the wifi and I tried with the user and password told, so it worked. But I asked myself: ¿Is it that the girl doesn't know what is the kind of internet connection it's working in the hotel?4. The entrance to the hotel was depressing, but when I came to my room, it was even worse. Towels were clean but broken and very used, the same with the coverage of bed, the restroom was full of insects, the W.C without tap, the sink hadn't tap and the griffin was broken too. In the bath I could find two hairs of the previous guest.5. One of the lamps in the bed hadn't bulb, so the room was really darker and depressing.6. The TV screen is so older and used that you see all the image green.More</t>
   </si>
   <si>
+    <t>Sheri J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r10358849-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1467,6 +1638,9 @@
     <t>We stayed here for one night and payed just under $70.00 for 2 people.  The whole experience was horrible.  First upon checking in around 7:30 p.m. we were told the credit card machine was down so cash only.  We stated it wasn't an option we were going to use a credit card. As there was only one person working at the entire hotel she finally stated fine I'll call you when it's working again.  We stated we'd rather just pay in the morning as it had been a long day but no she would call us.  She did finally call around 9-9:30p.m we were already in bed so my husband had to get dressed to go down and pay.  The curtains in the room were torn off the rod in the middle so they hung slightly open, the light on the ceiling had no light bulb so there was only 1 small light on each side of the bed to try and read by.  The next morning upon getting in the shower we found out there was soap left in it  with hair on it from the maid and there was only cold water coming out as the shower head was stripped.  We called the front desk but as I was freezing from this experience I had already given up on a shower.  The front desk sent a man to check it and he confirmed it was stripped.  Then about...We stayed here for one night and payed just under $70.00 for 2 people.  The whole experience was horrible.  First upon checking in around 7:30 p.m. we were told the credit card machine was down so cash only.  We stated it wasn't an option we were going to use a credit card. As there was only one person working at the entire hotel she finally stated fine I'll call you when it's working again.  We stated we'd rather just pay in the morning as it had been a long day but no she would call us.  She did finally call around 9-9:30p.m we were already in bed so my husband had to get dressed to go down and pay.  The curtains in the room were torn off the rod in the middle so they hung slightly open, the light on the ceiling had no light bulb so there was only 1 small light on each side of the bed to try and read by.  The next morning upon getting in the shower we found out there was soap left in it  with hair on it from the maid and there was only cold water coming out as the shower head was stripped.  We called the front desk but as I was freezing from this experience I had already given up on a shower.  The front desk sent a man to check it and he confirmed it was stripped.  Then about a half hour after the man checked and we were ready to just get out of there the front desk called (too late)  to tell us we could use another room to shower.  The blow dryer was cracked in 2 places and looked dangerous.  Upon checking out the front desk was horrible, but finally offered to give us 10 percent off--what an insult after that experience.More</t>
   </si>
   <si>
+    <t>travlers123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r6308510-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1482,6 +1656,9 @@
     <t>Don't stay at this hotel.  Awful area.  Adult book and video stores all around the hotel.  Our room was at the end of the hotel and we looked out to an apartment building with bars on the windows. Cockroachs in the bathroom and as far as breakfast, stale at least 3 day old donuts and coffee. Stay away.</t>
   </si>
   <si>
+    <t>JoeyJoeUK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r5936129-Motel_6_Inglewood_CA-Inglewood_California.html</t>
   </si>
   <si>
@@ -1501,6 +1678,9 @@
   </si>
   <si>
     <t>I booked this through Hostelworld.com and was expecting it to be AAE LA Hostel and Economy Hotel. It was rather confusing, as it turned out to be an Econo lodge?? but I figured that was probably a bonusThe main reason for choosing it was cause it was dirt cheap ($25 a night for a twin room with breakfast)The location was rubbish, but didn't seem too bad, although I didn't wander out at night. It was fine if you have a car.It felt like it was at the end of the runway, as the planes flew right overhead and Very low. The noise was loud, but I slept ok, although my fiancee didn't, as she is a light sleeperWe had two nights here. The breakfast was really bad. It was just a cup of coffee and a stale donut - not quite what I was expecting. The guy at the desk was really nice and moved us when our non smoking room stank of smoke.Our room was fine once we moved. It was spacious, clean and better than I expected from the run down look of the motel from the outsideIt took about 30 mins to drive to hollywood depending on the time of day. It was very empty, probably cause it's not at all scenic.I don't think i'd stay again, but it is very cheap.More</t>
+  </si>
+  <si>
+    <t>rock_botttom</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84225-r3375747-Motel_6_Inglewood_CA-Inglewood_California.html</t>
@@ -2032,43 +2212,47 @@
       <c r="A2" t="n">
         <v>17541</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2086,56 +2270,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>17541</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2147,56 +2335,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>17541</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2212,56 +2404,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>17541</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2273,56 +2469,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>17541</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2340,56 +2540,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>17541</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" t="s">
         <v>94</v>
-      </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" t="s">
-        <v>89</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2405,56 +2609,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>17541</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2472,56 +2680,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>17541</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2533,56 +2745,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>17541</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2594,56 +2810,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>17541</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2655,56 +2875,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>17541</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2722,56 +2946,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>17541</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2787,56 +3015,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>17541</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2854,56 +3086,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>17541</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2921,56 +3157,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>17541</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2988,56 +3228,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>17541</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3055,56 +3299,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17541</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3122,56 +3370,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>17541</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3183,56 +3435,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>17541</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3244,56 +3500,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>17541</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3305,56 +3565,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="X21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>17541</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3370,47 +3634,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>17541</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -3427,56 +3695,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="X23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>17541</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O24" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3488,56 +3760,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="X24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>17541</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="O25" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3555,56 +3831,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="X25" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>17541</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="O26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3616,47 +3896,51 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="X26" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>17541</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
@@ -3683,56 +3967,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="X27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>17541</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>287</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3748,56 +4036,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="Y28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>17541</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="O29" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3815,56 +4107,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="X29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="Y29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>17541</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>305</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="J30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="K30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="O30" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3876,56 +4172,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="X30" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="Y30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>17541</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>312</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="J31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="K31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="L31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3945,56 +4245,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="X31" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="Y31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>17541</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>320</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="K32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="L32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="O32" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4016,56 +4320,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="X32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="Y32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>17541</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>330</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="J33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="L33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4087,47 +4395,51 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="X33" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="Y33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>17541</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>338</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="J34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="K34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="L34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
@@ -4156,41 +4468,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>17541</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>344</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="J35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="K35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="L35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
@@ -4219,50 +4535,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>17541</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>350</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="J36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="K36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="L36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="O36" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4284,50 +4604,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>17541</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>358</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="J37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="K37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="L37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="O37" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4351,50 +4675,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>17541</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>366</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="J38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="L38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4414,56 +4742,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="X38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="Y38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>17541</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>376</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="J39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="L39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="O39" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4485,56 +4817,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="X39" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="Y39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>17541</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>385</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="J40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="O40" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -4556,56 +4892,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="X40" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="Y40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>17541</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>394</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="J41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="K41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="L41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="O41" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4629,50 +4969,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>17541</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>400</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="J42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="K42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="L42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="O42" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4696,50 +5040,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>17541</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>407</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="J43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="K43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="L43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4763,50 +5111,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>17541</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>414</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="J44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="K44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="L44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="O44" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4830,50 +5182,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>17541</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>421</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="J45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="K45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="L45" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="O45" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4897,50 +5253,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>17541</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>428</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="J46" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="K46" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="L46" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="O46" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -4964,50 +5324,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>17541</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>436</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="J47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="K47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="L47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5031,50 +5395,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>17541</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>443</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="J48" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="K48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="L48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -5094,50 +5462,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>17541</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>449</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="J49" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="K49" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="L49" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="O49" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -5157,50 +5529,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>17541</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>457</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="J50" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="K50" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="L50" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5224,50 +5600,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>17541</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>464</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="J51" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="K51" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="L51" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="O51" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5289,56 +5669,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="X51" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="Y51" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>17541</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>474</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="J52" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="K52" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="L52" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="O52" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5360,56 +5744,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="X52" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="Y52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>17541</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>484</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="J53" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="K53" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="L53" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5433,50 +5821,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>17541</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>491</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="J54" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="K54" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="L54" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="O54" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -5500,50 +5892,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>17541</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>498</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="J55" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="K55" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="L55" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="O55" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5567,50 +5963,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>17541</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>506</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="J56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="K56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="L56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="O56" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -5634,50 +6034,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>17541</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>514</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="J57" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="K57" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="L57" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="O57" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5701,50 +6105,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>17541</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>522</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="J58" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="K58" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="L58" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="O58" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5768,41 +6176,45 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>17541</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>530</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="J59" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="K59" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="L59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
@@ -5829,50 +6241,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>17541</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>536</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="J60" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="K60" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="L60" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -5896,50 +6312,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>17541</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>544</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="J61" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="K61" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="L61" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="O61" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -5961,7 +6381,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
